--- a/results1.xlsx
+++ b/results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0621EED1-28E6-4644-B4F4-BBD98AD12772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CE0A47-895D-4F8A-A544-3EAA245D884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="753">
   <si>
     <t>الاسم الكامل</t>
   </si>
@@ -2878,13 +2878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D9B472-615A-444B-A8C8-0C8D83C0DD87}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O365"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="24" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="N24" s="8"/>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="N26" s="8"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3947,11 +3947,15 @@
       <c r="D30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="10">
+        <v>37</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3</v>
+      </c>
       <c r="G30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>386</v>
@@ -3965,9 +3969,15 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="13"/>
+      <c r="M30" s="8">
+        <v>4</v>
+      </c>
+      <c r="N30" s="8">
+        <v>43</v>
+      </c>
+      <c r="O30" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -3982,11 +3992,15 @@
       <c r="D31" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="10">
+        <v>39</v>
+      </c>
+      <c r="F31" s="10">
+        <v>16</v>
+      </c>
       <c r="G31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>386</v>
@@ -3996,13 +4010,23 @@
       </c>
       <c r="J31" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K31" s="8">
+        <v>3</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8">
+        <v>4</v>
+      </c>
+      <c r="N31" s="8">
+        <v>43</v>
+      </c>
+      <c r="O31" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -4017,8 +4041,12 @@
       <c r="D32" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
       <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4035,9 +4063,15 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="13"/>
+      <c r="M32" s="8">
+        <v>4</v>
+      </c>
+      <c r="N32" s="8">
+        <v>43</v>
+      </c>
+      <c r="O32" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -4052,8 +4086,12 @@
       <c r="D33" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
       <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4070,9 +4108,15 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="13"/>
+      <c r="M33" s="8">
+        <v>4</v>
+      </c>
+      <c r="N33" s="8">
+        <v>43</v>
+      </c>
+      <c r="O33" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -4087,8 +4131,12 @@
       <c r="D34" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
       <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4105,9 +4153,15 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="13"/>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+      <c r="N34" s="8">
+        <v>43</v>
+      </c>
+      <c r="O34" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
@@ -4122,11 +4176,15 @@
       <c r="D35" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="10">
+        <v>23</v>
+      </c>
+      <c r="F35" s="10">
+        <v>9</v>
+      </c>
       <c r="G35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>386</v>
@@ -4140,9 +4198,15 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="13"/>
+      <c r="M35" s="8">
+        <v>4</v>
+      </c>
+      <c r="N35" s="8">
+        <v>43</v>
+      </c>
+      <c r="O35" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -4157,11 +4221,15 @@
       <c r="D36" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="10">
+        <v>39</v>
+      </c>
+      <c r="F36" s="10">
+        <v>8</v>
+      </c>
       <c r="G36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>386</v>
@@ -4175,9 +4243,15 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="13"/>
+      <c r="M36" s="8">
+        <v>4</v>
+      </c>
+      <c r="N36" s="8">
+        <v>43</v>
+      </c>
+      <c r="O36" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -4192,8 +4266,12 @@
       <c r="D37" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
       <c r="G37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4210,9 +4288,15 @@
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="13"/>
+      <c r="M37" s="8">
+        <v>4</v>
+      </c>
+      <c r="N37" s="8">
+        <v>43</v>
+      </c>
+      <c r="O37" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -4227,8 +4311,12 @@
       <c r="D38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
       <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4245,9 +4333,15 @@
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="13"/>
+      <c r="M38" s="8">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>43</v>
+      </c>
+      <c r="O38" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
@@ -4262,11 +4356,15 @@
       <c r="D39" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="10">
+        <v>44</v>
+      </c>
+      <c r="F39" s="10">
+        <v>18</v>
+      </c>
       <c r="G39" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>386</v>
@@ -4276,13 +4374,23 @@
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4</v>
+      </c>
+      <c r="N39" s="8">
+        <v>43</v>
+      </c>
+      <c r="O39" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
@@ -4297,11 +4405,15 @@
       <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="10">
+        <v>29</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
       <c r="G40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>386</v>
@@ -4315,9 +4427,15 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="13"/>
+      <c r="M40" s="8">
+        <v>4</v>
+      </c>
+      <c r="N40" s="8">
+        <v>43</v>
+      </c>
+      <c r="O40" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
@@ -4332,11 +4450,15 @@
       <c r="D41" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="10">
+        <v>28</v>
+      </c>
+      <c r="F41" s="10">
+        <v>8</v>
+      </c>
       <c r="G41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>386</v>
@@ -4350,9 +4472,15 @@
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="13"/>
+      <c r="M41" s="8">
+        <v>4</v>
+      </c>
+      <c r="N41" s="8">
+        <v>43</v>
+      </c>
+      <c r="O41" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
@@ -4367,11 +4495,15 @@
       <c r="D42" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="10">
+        <v>37</v>
+      </c>
+      <c r="F42" s="10">
+        <v>18</v>
+      </c>
       <c r="G42" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>386</v>
@@ -4381,13 +4513,23 @@
       </c>
       <c r="J42" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K42" s="8">
+        <v>3</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="8">
+        <v>4</v>
+      </c>
+      <c r="N42" s="8">
+        <v>43</v>
+      </c>
+      <c r="O42" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
@@ -4402,8 +4544,12 @@
       <c r="D43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
       <c r="G43" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4420,9 +4566,15 @@
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="13"/>
+      <c r="M43" s="8">
+        <v>4</v>
+      </c>
+      <c r="N43" s="8">
+        <v>43</v>
+      </c>
+      <c r="O43" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
@@ -4437,11 +4589,15 @@
       <c r="D44" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="10">
+        <v>35</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5</v>
+      </c>
       <c r="G44" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>386</v>
@@ -4455,9 +4611,15 @@
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="13"/>
+      <c r="M44" s="8">
+        <v>4</v>
+      </c>
+      <c r="N44" s="8">
+        <v>43</v>
+      </c>
+      <c r="O44" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
@@ -4472,8 +4634,12 @@
       <c r="D45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
       <c r="G45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4490,9 +4656,15 @@
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="13"/>
+      <c r="M45" s="8">
+        <v>4</v>
+      </c>
+      <c r="N45" s="8">
+        <v>43</v>
+      </c>
+      <c r="O45" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
@@ -4507,11 +4679,15 @@
       <c r="D46" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="10">
+        <v>43</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
       <c r="G46" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>386</v>
@@ -4525,9 +4701,15 @@
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="13"/>
+      <c r="M46" s="8">
+        <v>4</v>
+      </c>
+      <c r="N46" s="8">
+        <v>43</v>
+      </c>
+      <c r="O46" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
@@ -4542,11 +4724,15 @@
       <c r="D47" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="10">
+        <v>29</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
       <c r="G47" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>386</v>
@@ -4560,9 +4746,15 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="13"/>
+      <c r="M47" s="8">
+        <v>4</v>
+      </c>
+      <c r="N47" s="8">
+        <v>43</v>
+      </c>
+      <c r="O47" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
@@ -4577,11 +4769,15 @@
       <c r="D48" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="10">
+        <v>33</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
       <c r="G48" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>386</v>
@@ -4595,9 +4791,15 @@
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="13"/>
+      <c r="M48" s="8">
+        <v>4</v>
+      </c>
+      <c r="N48" s="8">
+        <v>43</v>
+      </c>
+      <c r="O48" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
@@ -4612,11 +4814,15 @@
       <c r="D49" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="10">
+        <v>35</v>
+      </c>
+      <c r="F49" s="10">
+        <v>11</v>
+      </c>
       <c r="G49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>386</v>
@@ -4630,9 +4836,15 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="13"/>
+      <c r="M49" s="8">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8">
+        <v>43</v>
+      </c>
+      <c r="O49" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
@@ -4647,8 +4859,12 @@
       <c r="D50" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
       <c r="G50" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4665,9 +4881,15 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="13"/>
+      <c r="M50" s="8">
+        <v>4</v>
+      </c>
+      <c r="N50" s="8">
+        <v>43</v>
+      </c>
+      <c r="O50" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
@@ -4682,8 +4904,12 @@
       <c r="D51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
       <c r="G51" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4700,9 +4926,15 @@
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="13"/>
+      <c r="M51" s="8">
+        <v>4</v>
+      </c>
+      <c r="N51" s="8">
+        <v>43</v>
+      </c>
+      <c r="O51" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
@@ -4717,11 +4949,15 @@
       <c r="D52" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="10">
+        <v>33</v>
+      </c>
+      <c r="F52" s="10">
+        <v>15</v>
+      </c>
       <c r="G52" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>386</v>
@@ -4735,9 +4971,15 @@
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="13"/>
+      <c r="M52" s="8">
+        <v>4</v>
+      </c>
+      <c r="N52" s="8">
+        <v>43</v>
+      </c>
+      <c r="O52" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
@@ -4752,8 +4994,12 @@
       <c r="D53" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
       <c r="G53" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4770,9 +5016,15 @@
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="13"/>
+      <c r="M53" s="8">
+        <v>4</v>
+      </c>
+      <c r="N53" s="8">
+        <v>43</v>
+      </c>
+      <c r="O53" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
@@ -4787,11 +5039,15 @@
       <c r="D54" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="10">
+        <v>25</v>
+      </c>
+      <c r="F54" s="10">
+        <v>3</v>
+      </c>
       <c r="G54" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>386</v>
@@ -4805,9 +5061,15 @@
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="13"/>
+      <c r="M54" s="8">
+        <v>4</v>
+      </c>
+      <c r="N54" s="8">
+        <v>43</v>
+      </c>
+      <c r="O54" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -4822,11 +5084,15 @@
       <c r="D55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="10">
+        <v>28</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
       <c r="G55" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>386</v>
@@ -4840,9 +5106,15 @@
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="13"/>
+      <c r="M55" s="8">
+        <v>4</v>
+      </c>
+      <c r="N55" s="8">
+        <v>43</v>
+      </c>
+      <c r="O55" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
@@ -4857,11 +5129,15 @@
       <c r="D56" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="10">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
       <c r="G56" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>386</v>
@@ -4875,9 +5151,15 @@
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="13"/>
+      <c r="M56" s="8">
+        <v>4</v>
+      </c>
+      <c r="N56" s="8">
+        <v>43</v>
+      </c>
+      <c r="O56" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
@@ -4892,11 +5174,15 @@
       <c r="D57" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="10">
+        <v>31</v>
+      </c>
+      <c r="F57" s="10">
+        <v>4</v>
+      </c>
       <c r="G57" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>386</v>
@@ -4910,9 +5196,15 @@
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="13"/>
+      <c r="M57" s="8">
+        <v>4</v>
+      </c>
+      <c r="N57" s="8">
+        <v>43</v>
+      </c>
+      <c r="O57" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
@@ -4927,8 +5219,12 @@
       <c r="D58" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
       <c r="G58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4945,9 +5241,15 @@
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="13"/>
+      <c r="M58" s="8">
+        <v>4</v>
+      </c>
+      <c r="N58" s="8">
+        <v>43</v>
+      </c>
+      <c r="O58" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -4962,11 +5264,15 @@
       <c r="D59" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="10">
+        <v>33</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
       <c r="G59" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>386</v>
@@ -4980,9 +5286,15 @@
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="13"/>
+      <c r="M59" s="8">
+        <v>4</v>
+      </c>
+      <c r="N59" s="8">
+        <v>43</v>
+      </c>
+      <c r="O59" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
@@ -4997,8 +5309,12 @@
       <c r="D60" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
       <c r="G60" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5015,9 +5331,15 @@
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="13"/>
+      <c r="M60" s="8">
+        <v>4</v>
+      </c>
+      <c r="N60" s="8">
+        <v>43</v>
+      </c>
+      <c r="O60" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -5032,11 +5354,15 @@
       <c r="D61" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="E61" s="10">
+        <v>40</v>
+      </c>
+      <c r="F61" s="10">
+        <v>16</v>
+      </c>
       <c r="G61" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>386</v>
@@ -5046,13 +5372,23 @@
       </c>
       <c r="J61" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>راسب</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="13"/>
+        <v>ناجح</v>
+      </c>
+      <c r="K61" s="8">
+        <v>2</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="8">
+        <v>4</v>
+      </c>
+      <c r="N61" s="8">
+        <v>43</v>
+      </c>
+      <c r="O61" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -5067,11 +5403,15 @@
       <c r="D62" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="E62" s="10">
+        <v>33</v>
+      </c>
+      <c r="F62" s="10">
+        <v>7</v>
+      </c>
       <c r="G62" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>386</v>
@@ -5085,9 +5425,15 @@
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="13"/>
+      <c r="M62" s="8">
+        <v>4</v>
+      </c>
+      <c r="N62" s="8">
+        <v>43</v>
+      </c>
+      <c r="O62" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -5102,11 +5448,15 @@
       <c r="D63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="10">
+        <v>35</v>
+      </c>
+      <c r="F63" s="10">
+        <v>7</v>
+      </c>
       <c r="G63" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>386</v>
@@ -5120,9 +5470,15 @@
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="13"/>
+      <c r="M63" s="8">
+        <v>4</v>
+      </c>
+      <c r="N63" s="8">
+        <v>43</v>
+      </c>
+      <c r="O63" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="64" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
@@ -5137,8 +5493,12 @@
       <c r="D64" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
       <c r="G64" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5155,9 +5515,15 @@
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="13"/>
+      <c r="M64" s="8">
+        <v>4</v>
+      </c>
+      <c r="N64" s="8">
+        <v>43</v>
+      </c>
+      <c r="O64" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
@@ -5172,11 +5538,15 @@
       <c r="D65" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="E65" s="10">
+        <v>24</v>
+      </c>
+      <c r="F65" s="10">
+        <v>13</v>
+      </c>
       <c r="G65" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>386</v>
@@ -5190,9 +5560,15 @@
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="13"/>
+      <c r="M65" s="8">
+        <v>4</v>
+      </c>
+      <c r="N65" s="8">
+        <v>43</v>
+      </c>
+      <c r="O65" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -5207,11 +5583,15 @@
       <c r="D66" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="E66" s="10">
+        <v>28</v>
+      </c>
+      <c r="F66" s="10">
+        <v>9</v>
+      </c>
       <c r="G66" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>386</v>
@@ -5225,9 +5605,15 @@
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="13"/>
+      <c r="M66" s="8">
+        <v>4</v>
+      </c>
+      <c r="N66" s="8">
+        <v>43</v>
+      </c>
+      <c r="O66" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
@@ -5242,11 +5628,15 @@
       <c r="D67" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="E67" s="10">
+        <v>36</v>
+      </c>
+      <c r="F67" s="10">
+        <v>10</v>
+      </c>
       <c r="G67" s="10">
         <f t="shared" ref="G67:G130" si="2">F67+E67</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>386</v>
@@ -5260,9 +5650,15 @@
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="13"/>
+      <c r="M67" s="8">
+        <v>4</v>
+      </c>
+      <c r="N67" s="8">
+        <v>43</v>
+      </c>
+      <c r="O67" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -5277,8 +5673,12 @@
       <c r="D68" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
       <c r="G68" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5295,9 +5695,15 @@
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="13"/>
+      <c r="M68" s="8">
+        <v>4</v>
+      </c>
+      <c r="N68" s="8">
+        <v>43</v>
+      </c>
+      <c r="O68" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
@@ -5312,11 +5718,15 @@
       <c r="D69" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="E69" s="10">
+        <v>31</v>
+      </c>
+      <c r="F69" s="10">
+        <v>11</v>
+      </c>
       <c r="G69" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>386</v>
@@ -5330,9 +5740,15 @@
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="13"/>
+      <c r="M69" s="8">
+        <v>4</v>
+      </c>
+      <c r="N69" s="8">
+        <v>43</v>
+      </c>
+      <c r="O69" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -5347,11 +5763,15 @@
       <c r="D70" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="E70" s="10">
+        <v>32</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
       <c r="G70" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>386</v>
@@ -5365,9 +5785,15 @@
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="13"/>
+      <c r="M70" s="8">
+        <v>4</v>
+      </c>
+      <c r="N70" s="8">
+        <v>43</v>
+      </c>
+      <c r="O70" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
@@ -5382,8 +5808,12 @@
       <c r="D71" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
       <c r="G71" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5400,9 +5830,15 @@
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="13"/>
+      <c r="M71" s="8">
+        <v>4</v>
+      </c>
+      <c r="N71" s="8">
+        <v>43</v>
+      </c>
+      <c r="O71" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
@@ -5417,11 +5853,15 @@
       <c r="D72" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="E72" s="10">
+        <v>24</v>
+      </c>
+      <c r="F72" s="10">
+        <v>3</v>
+      </c>
       <c r="G72" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>386</v>
@@ -5435,11 +5875,17 @@
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M72" s="8">
+        <v>4</v>
+      </c>
+      <c r="N72" s="8">
+        <v>43</v>
+      </c>
+      <c r="O72" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -5484,7 +5930,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -5529,7 +5975,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -5549,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="10">
-        <f>F75+E75</f>
+        <f t="shared" ref="G75:G118" si="4">F75+E75</f>
         <v>51</v>
       </c>
       <c r="H75" s="11" t="s">
@@ -5559,7 +6005,7 @@
         <v>752</v>
       </c>
       <c r="J75" s="12" t="str">
-        <f>IF(G75&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J75:J118" si="5">IF(G75&gt;=50,"ناجح","راسب")</f>
         <v>ناجح</v>
       </c>
       <c r="K75" s="8">
@@ -5578,7 +6024,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -5598,7 +6044,7 @@
         <v>14</v>
       </c>
       <c r="G76" s="10">
-        <f>F76+E76</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -5608,7 +6054,7 @@
         <v>752</v>
       </c>
       <c r="J76" s="12" t="str">
-        <f>IF(G76&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K76" s="8"/>
@@ -5623,7 +6069,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>95</v>
       </c>
@@ -5643,7 +6089,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="10">
-        <f>F77+E77</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="H77" s="11" t="s">
@@ -5653,7 +6099,7 @@
         <v>752</v>
       </c>
       <c r="J77" s="12" t="str">
-        <f>IF(G77&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K77" s="8">
@@ -5672,7 +6118,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -5692,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="10">
-        <f>F78+E78</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="H78" s="11" t="s">
@@ -5702,7 +6148,7 @@
         <v>752</v>
       </c>
       <c r="J78" s="12" t="str">
-        <f>IF(G78&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K78" s="8"/>
@@ -5717,7 +6163,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -5737,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="G79" s="10">
-        <f>F79+E79</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="H79" s="11" t="s">
@@ -5747,7 +6193,7 @@
         <v>752</v>
       </c>
       <c r="J79" s="12" t="str">
-        <f>IF(G79&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K79" s="8"/>
@@ -5762,7 +6208,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -5782,7 +6228,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="10">
-        <f>F80+E80</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H80" s="11" t="s">
@@ -5792,7 +6238,7 @@
         <v>752</v>
       </c>
       <c r="J80" s="12" t="str">
-        <f>IF(G80&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K80" s="8"/>
@@ -5807,7 +6253,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -5827,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="10">
-        <f>F81+E81</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="11" t="s">
@@ -5837,7 +6283,7 @@
         <v>752</v>
       </c>
       <c r="J81" s="12" t="str">
-        <f>IF(G81&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K81" s="8"/>
@@ -5852,7 +6298,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -5872,7 +6318,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="10">
-        <f>F82+E82</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H82" s="11" t="s">
@@ -5882,7 +6328,7 @@
         <v>752</v>
       </c>
       <c r="J82" s="12" t="str">
-        <f>IF(G82&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K82" s="8"/>
@@ -5897,7 +6343,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -5917,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="10">
-        <f>F83+E83</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="11" t="s">
@@ -5927,7 +6373,7 @@
         <v>752</v>
       </c>
       <c r="J83" s="12" t="str">
-        <f>IF(G83&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K83" s="8"/>
@@ -5942,7 +6388,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -5962,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="10">
-        <f>F84+E84</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="11" t="s">
@@ -5972,7 +6418,7 @@
         <v>752</v>
       </c>
       <c r="J84" s="12" t="str">
-        <f>IF(G84&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K84" s="8"/>
@@ -5987,7 +6433,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -6007,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="10">
-        <f>F85+E85</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="11" t="s">
@@ -6017,7 +6463,7 @@
         <v>752</v>
       </c>
       <c r="J85" s="12" t="str">
-        <f>IF(G85&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K85" s="8"/>
@@ -6032,7 +6478,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -6052,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="10">
-        <f>F86+E86</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
@@ -6062,7 +6508,7 @@
         <v>752</v>
       </c>
       <c r="J86" s="12" t="str">
-        <f>IF(G86&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K86" s="8"/>
@@ -6077,7 +6523,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -6097,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="10">
-        <f>F87+E87</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H87" s="11" t="s">
@@ -6107,7 +6553,7 @@
         <v>752</v>
       </c>
       <c r="J87" s="12" t="str">
-        <f>IF(G87&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K87" s="8"/>
@@ -6122,7 +6568,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -6142,7 +6588,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="10">
-        <f>F88+E88</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="H88" s="11" t="s">
@@ -6152,7 +6598,7 @@
         <v>752</v>
       </c>
       <c r="J88" s="12" t="str">
-        <f>IF(G88&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K88" s="8"/>
@@ -6167,7 +6613,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -6187,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="10">
-        <f>F89+E89</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H89" s="11" t="s">
@@ -6197,7 +6643,7 @@
         <v>752</v>
       </c>
       <c r="J89" s="12" t="str">
-        <f>IF(G89&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K89" s="8"/>
@@ -6212,7 +6658,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -6232,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="10">
-        <f>F90+E90</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -6242,7 +6688,7 @@
         <v>752</v>
       </c>
       <c r="J90" s="12" t="str">
-        <f>IF(G90&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K90" s="8"/>
@@ -6257,7 +6703,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -6277,7 +6723,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="10">
-        <f>F91+E91</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -6287,7 +6733,7 @@
         <v>752</v>
       </c>
       <c r="J91" s="12" t="str">
-        <f>IF(G91&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K91" s="8"/>
@@ -6302,7 +6748,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>76</v>
       </c>
@@ -6322,7 +6768,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="10">
-        <f>F92+E92</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -6332,7 +6778,7 @@
         <v>752</v>
       </c>
       <c r="J92" s="12" t="str">
-        <f>IF(G92&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K92" s="8">
@@ -6351,7 +6797,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -6371,7 +6817,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="10">
-        <f>F93+E93</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -6381,7 +6827,7 @@
         <v>752</v>
       </c>
       <c r="J93" s="12" t="str">
-        <f>IF(G93&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K93" s="8"/>
@@ -6396,7 +6842,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -6416,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="10">
-        <f>F94+E94</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="H94" s="11" t="s">
@@ -6426,7 +6872,7 @@
         <v>752</v>
       </c>
       <c r="J94" s="12" t="str">
-        <f>IF(G94&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K94" s="8"/>
@@ -6441,7 +6887,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>94</v>
       </c>
@@ -6461,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="10">
-        <f>F95+E95</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -6471,7 +6917,7 @@
         <v>752</v>
       </c>
       <c r="J95" s="12" t="str">
-        <f>IF(G95&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K95" s="8"/>
@@ -6486,7 +6932,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>91</v>
       </c>
@@ -6506,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="10">
-        <f>F96+E96</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H96" s="11" t="s">
@@ -6516,7 +6962,7 @@
         <v>752</v>
       </c>
       <c r="J96" s="12" t="str">
-        <f>IF(G96&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K96" s="8">
@@ -6535,7 +6981,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -6555,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="10">
-        <f>F97+E97</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H97" s="11" t="s">
@@ -6565,7 +7011,7 @@
         <v>752</v>
       </c>
       <c r="J97" s="12" t="str">
-        <f>IF(G97&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K97" s="8"/>
@@ -6580,7 +7026,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -6600,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="10">
-        <f>F98+E98</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98" s="11" t="s">
@@ -6610,7 +7056,7 @@
         <v>752</v>
       </c>
       <c r="J98" s="12" t="str">
-        <f>IF(G98&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K98" s="8"/>
@@ -6625,7 +7071,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>98</v>
       </c>
@@ -6645,7 +7091,7 @@
         <v>13</v>
       </c>
       <c r="G99" s="10">
-        <f>F99+E99</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -6655,7 +7101,7 @@
         <v>752</v>
       </c>
       <c r="J99" s="12" t="str">
-        <f>IF(G99&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K99" s="8"/>
@@ -6670,7 +7116,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -6690,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="G100" s="10">
-        <f>F100+E100</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="H100" s="11" t="s">
@@ -6700,7 +7146,7 @@
         <v>752</v>
       </c>
       <c r="J100" s="12" t="str">
-        <f>IF(G100&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K100" s="8"/>
@@ -6715,7 +7161,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -6735,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="10">
-        <f>F101+E101</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H101" s="11" t="s">
@@ -6745,7 +7191,7 @@
         <v>752</v>
       </c>
       <c r="J101" s="12" t="str">
-        <f>IF(G101&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K101" s="8"/>
@@ -6760,7 +7206,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -6780,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="G102" s="10">
-        <f>F102+E102</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H102" s="11" t="s">
@@ -6790,7 +7236,7 @@
         <v>752</v>
       </c>
       <c r="J102" s="12" t="str">
-        <f>IF(G102&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K102" s="8"/>
@@ -6805,7 +7251,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>102</v>
       </c>
@@ -6825,7 +7271,7 @@
         <v>5</v>
       </c>
       <c r="G103" s="10">
-        <f>F103+E103</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H103" s="11" t="s">
@@ -6835,7 +7281,7 @@
         <v>752</v>
       </c>
       <c r="J103" s="12" t="str">
-        <f>IF(G103&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K103" s="8"/>
@@ -6850,7 +7296,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -6870,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="G104" s="10">
-        <f>F104+E104</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="H104" s="11" t="s">
@@ -6880,7 +7326,7 @@
         <v>752</v>
       </c>
       <c r="J104" s="12" t="str">
-        <f>IF(G104&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K104" s="8"/>
@@ -6895,7 +7341,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -6915,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="10">
-        <f>F105+E105</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -6925,7 +7371,7 @@
         <v>752</v>
       </c>
       <c r="J105" s="12" t="str">
-        <f>IF(G105&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K105" s="8"/>
@@ -6940,7 +7386,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -6960,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="10">
-        <f>F106+E106</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106" s="11" t="s">
@@ -6970,7 +7416,7 @@
         <v>752</v>
       </c>
       <c r="J106" s="12" t="str">
-        <f>IF(G106&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K106" s="8"/>
@@ -6985,7 +7431,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>106</v>
       </c>
@@ -7005,7 +7451,7 @@
         <v>15</v>
       </c>
       <c r="G107" s="10">
-        <f>F107+E107</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="H107" s="11" t="s">
@@ -7015,7 +7461,7 @@
         <v>752</v>
       </c>
       <c r="J107" s="12" t="str">
-        <f>IF(G107&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K107" s="8"/>
@@ -7030,7 +7476,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -7050,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="10">
-        <f>F108+E108</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108" s="11" t="s">
@@ -7060,7 +7506,7 @@
         <v>752</v>
       </c>
       <c r="J108" s="12" t="str">
-        <f>IF(G108&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K108" s="8"/>
@@ -7075,7 +7521,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -7095,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="G109" s="10">
-        <f>F109+E109</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H109" s="11" t="s">
@@ -7105,7 +7551,7 @@
         <v>752</v>
       </c>
       <c r="J109" s="12" t="str">
-        <f>IF(G109&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K109" s="8"/>
@@ -7120,7 +7566,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -7140,7 +7586,7 @@
         <v>15</v>
       </c>
       <c r="G110" s="10">
-        <f>F110+E110</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="H110" s="11" t="s">
@@ -7150,7 +7596,7 @@
         <v>752</v>
       </c>
       <c r="J110" s="12" t="str">
-        <f>IF(G110&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K110" s="8"/>
@@ -7165,7 +7611,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -7185,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="G111" s="10">
-        <f>F111+E111</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="H111" s="11" t="s">
@@ -7195,7 +7641,7 @@
         <v>752</v>
       </c>
       <c r="J111" s="12" t="str">
-        <f>IF(G111&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K111" s="8"/>
@@ -7210,7 +7656,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -7230,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="G112" s="10">
-        <f>F112+E112</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H112" s="11" t="s">
@@ -7240,7 +7686,7 @@
         <v>752</v>
       </c>
       <c r="J112" s="12" t="str">
-        <f>IF(G112&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K112" s="8"/>
@@ -7255,7 +7701,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -7275,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="10">
-        <f>F113+E113</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113" s="11" t="s">
@@ -7285,7 +7731,7 @@
         <v>752</v>
       </c>
       <c r="J113" s="12" t="str">
-        <f>IF(G113&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K113" s="8"/>
@@ -7300,7 +7746,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -7320,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="10">
-        <f>F114+E114</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114" s="11" t="s">
@@ -7330,7 +7776,7 @@
         <v>752</v>
       </c>
       <c r="J114" s="12" t="str">
-        <f>IF(G114&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K114" s="8"/>
@@ -7345,7 +7791,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>114</v>
       </c>
@@ -7365,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="10">
-        <f>F115+E115</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H115" s="11" t="s">
@@ -7375,7 +7821,7 @@
         <v>752</v>
       </c>
       <c r="J115" s="12" t="str">
-        <f>IF(G115&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K115" s="8"/>
@@ -7390,7 +7836,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -7410,7 +7856,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="10">
-        <f>F116+E116</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="H116" s="11" t="s">
@@ -7420,7 +7866,7 @@
         <v>752</v>
       </c>
       <c r="J116" s="12" t="str">
-        <f>IF(G116&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K116" s="8"/>
@@ -7435,7 +7881,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -7455,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="10">
-        <f>F117+E117</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H117" s="11" t="s">
@@ -7465,7 +7911,7 @@
         <v>752</v>
       </c>
       <c r="J117" s="12" t="str">
-        <f>IF(G117&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>راسب</v>
       </c>
       <c r="K117" s="8"/>
@@ -7480,7 +7926,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -7500,7 +7946,7 @@
         <v>17</v>
       </c>
       <c r="G118" s="10">
-        <f>F118+E118</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H118" s="11" t="s">
@@ -7510,7 +7956,7 @@
         <v>752</v>
       </c>
       <c r="J118" s="12" t="str">
-        <f>IF(G118&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" si="5"/>
         <v>ناجح</v>
       </c>
       <c r="K118" s="8">
@@ -7529,7 +7975,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>118</v>
       </c>
@@ -7574,7 +8020,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -7619,7 +8065,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -7664,7 +8110,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -7709,7 +8155,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -7754,7 +8200,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -7799,7 +8245,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -7844,7 +8290,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -7889,7 +8335,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -7934,7 +8380,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -7979,7 +8425,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -8024,7 +8470,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -8069,7 +8515,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -8089,7 +8535,7 @@
         <v>7</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" ref="G131:G194" si="4">F131+E131</f>
+        <f t="shared" ref="G131:G194" si="6">F131+E131</f>
         <v>26</v>
       </c>
       <c r="H131" s="11" t="s">
@@ -8099,7 +8545,7 @@
         <v>752</v>
       </c>
       <c r="J131" s="12" t="str">
-        <f t="shared" ref="J131:J190" si="5">IF(G131&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J131:J190" si="7">IF(G131&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K131" s="8"/>
@@ -8114,7 +8560,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -8130,7 +8576,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H132" s="11" t="s">
@@ -8140,7 +8586,7 @@
         <v>752</v>
       </c>
       <c r="J132" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K132" s="8"/>
@@ -8149,7 +8595,7 @@
       <c r="N132" s="8"/>
       <c r="O132" s="13"/>
     </row>
-    <row r="133" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -8165,7 +8611,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133" s="11" t="s">
@@ -8175,7 +8621,7 @@
         <v>752</v>
       </c>
       <c r="J133" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K133" s="8"/>
@@ -8184,7 +8630,7 @@
       <c r="N133" s="8"/>
       <c r="O133" s="13"/>
     </row>
-    <row r="134" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -8200,7 +8646,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H134" s="11" t="s">
@@ -8210,7 +8656,7 @@
         <v>752</v>
       </c>
       <c r="J134" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K134" s="8"/>
@@ -8219,7 +8665,7 @@
       <c r="N134" s="8"/>
       <c r="O134" s="13"/>
     </row>
-    <row r="135" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -8235,7 +8681,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135" s="11" t="s">
@@ -8245,7 +8691,7 @@
         <v>752</v>
       </c>
       <c r="J135" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K135" s="8"/>
@@ -8254,7 +8700,7 @@
       <c r="N135" s="8"/>
       <c r="O135" s="13"/>
     </row>
-    <row r="136" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -8270,7 +8716,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H136" s="11" t="s">
@@ -8280,7 +8726,7 @@
         <v>752</v>
       </c>
       <c r="J136" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K136" s="8"/>
@@ -8289,7 +8735,7 @@
       <c r="N136" s="8"/>
       <c r="O136" s="13"/>
     </row>
-    <row r="137" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -8305,7 +8751,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H137" s="11" t="s">
@@ -8315,7 +8761,7 @@
         <v>752</v>
       </c>
       <c r="J137" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K137" s="8"/>
@@ -8324,7 +8770,7 @@
       <c r="N137" s="8"/>
       <c r="O137" s="13"/>
     </row>
-    <row r="138" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -8340,7 +8786,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H138" s="11" t="s">
@@ -8350,7 +8796,7 @@
         <v>752</v>
       </c>
       <c r="J138" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K138" s="8"/>
@@ -8359,7 +8805,7 @@
       <c r="N138" s="8"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -8375,7 +8821,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H139" s="11" t="s">
@@ -8385,7 +8831,7 @@
         <v>752</v>
       </c>
       <c r="J139" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K139" s="8"/>
@@ -8394,7 +8840,7 @@
       <c r="N139" s="8"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -8410,7 +8856,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H140" s="11" t="s">
@@ -8420,7 +8866,7 @@
         <v>752</v>
       </c>
       <c r="J140" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K140" s="8"/>
@@ -8429,7 +8875,7 @@
       <c r="N140" s="8"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -8445,7 +8891,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H141" s="11" t="s">
@@ -8455,7 +8901,7 @@
         <v>752</v>
       </c>
       <c r="J141" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K141" s="8"/>
@@ -8464,7 +8910,7 @@
       <c r="N141" s="8"/>
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -8480,7 +8926,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H142" s="11" t="s">
@@ -8490,7 +8936,7 @@
         <v>752</v>
       </c>
       <c r="J142" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K142" s="8"/>
@@ -8499,7 +8945,7 @@
       <c r="N142" s="8"/>
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -8515,7 +8961,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H143" s="11" t="s">
@@ -8525,7 +8971,7 @@
         <v>752</v>
       </c>
       <c r="J143" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K143" s="8"/>
@@ -8534,7 +8980,7 @@
       <c r="N143" s="8"/>
       <c r="O143" s="13"/>
     </row>
-    <row r="144" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -8550,7 +8996,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H144" s="11" t="s">
@@ -8560,7 +9006,7 @@
         <v>752</v>
       </c>
       <c r="J144" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K144" s="8"/>
@@ -8569,7 +9015,7 @@
       <c r="N144" s="8"/>
       <c r="O144" s="13"/>
     </row>
-    <row r="145" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -8585,7 +9031,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H145" s="11" t="s">
@@ -8595,7 +9041,7 @@
         <v>752</v>
       </c>
       <c r="J145" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K145" s="8"/>
@@ -8604,7 +9050,7 @@
       <c r="N145" s="8"/>
       <c r="O145" s="13"/>
     </row>
-    <row r="146" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -8620,7 +9066,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H146" s="11" t="s">
@@ -8630,7 +9076,7 @@
         <v>752</v>
       </c>
       <c r="J146" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K146" s="8"/>
@@ -8639,7 +9085,7 @@
       <c r="N146" s="8"/>
       <c r="O146" s="13"/>
     </row>
-    <row r="147" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -8655,7 +9101,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H147" s="11" t="s">
@@ -8665,7 +9111,7 @@
         <v>752</v>
       </c>
       <c r="J147" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K147" s="8"/>
@@ -8674,7 +9120,7 @@
       <c r="N147" s="8"/>
       <c r="O147" s="13"/>
     </row>
-    <row r="148" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -8690,7 +9136,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H148" s="11" t="s">
@@ -8700,7 +9146,7 @@
         <v>752</v>
       </c>
       <c r="J148" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K148" s="8"/>
@@ -8709,7 +9155,7 @@
       <c r="N148" s="8"/>
       <c r="O148" s="13"/>
     </row>
-    <row r="149" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -8725,7 +9171,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H149" s="11" t="s">
@@ -8735,7 +9181,7 @@
         <v>752</v>
       </c>
       <c r="J149" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K149" s="8"/>
@@ -8744,7 +9190,7 @@
       <c r="N149" s="8"/>
       <c r="O149" s="13"/>
     </row>
-    <row r="150" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -8760,7 +9206,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H150" s="11" t="s">
@@ -8770,7 +9216,7 @@
         <v>752</v>
       </c>
       <c r="J150" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K150" s="8"/>
@@ -8779,7 +9225,7 @@
       <c r="N150" s="8"/>
       <c r="O150" s="13"/>
     </row>
-    <row r="151" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -8795,7 +9241,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H151" s="11" t="s">
@@ -8805,7 +9251,7 @@
         <v>752</v>
       </c>
       <c r="J151" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K151" s="8"/>
@@ -8814,7 +9260,7 @@
       <c r="N151" s="8"/>
       <c r="O151" s="13"/>
     </row>
-    <row r="152" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -8830,7 +9276,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H152" s="11" t="s">
@@ -8840,7 +9286,7 @@
         <v>752</v>
       </c>
       <c r="J152" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K152" s="8"/>
@@ -8849,7 +9295,7 @@
       <c r="N152" s="8"/>
       <c r="O152" s="13"/>
     </row>
-    <row r="153" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -8865,7 +9311,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H153" s="11" t="s">
@@ -8875,7 +9321,7 @@
         <v>752</v>
       </c>
       <c r="J153" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K153" s="8"/>
@@ -8884,7 +9330,7 @@
       <c r="N153" s="8"/>
       <c r="O153" s="13"/>
     </row>
-    <row r="154" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -8900,7 +9346,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H154" s="11" t="s">
@@ -8910,7 +9356,7 @@
         <v>752</v>
       </c>
       <c r="J154" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K154" s="8"/>
@@ -8919,7 +9365,7 @@
       <c r="N154" s="8"/>
       <c r="O154" s="13"/>
     </row>
-    <row r="155" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -8935,7 +9381,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155" s="11" t="s">
@@ -8945,7 +9391,7 @@
         <v>752</v>
       </c>
       <c r="J155" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K155" s="8"/>
@@ -8954,7 +9400,7 @@
       <c r="N155" s="8"/>
       <c r="O155" s="13"/>
     </row>
-    <row r="156" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -8970,7 +9416,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156" s="11" t="s">
@@ -8980,7 +9426,7 @@
         <v>752</v>
       </c>
       <c r="J156" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K156" s="8"/>
@@ -8989,7 +9435,7 @@
       <c r="N156" s="8"/>
       <c r="O156" s="13"/>
     </row>
-    <row r="157" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -9005,7 +9451,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157" s="11" t="s">
@@ -9015,7 +9461,7 @@
         <v>752</v>
       </c>
       <c r="J157" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K157" s="8"/>
@@ -9024,7 +9470,7 @@
       <c r="N157" s="8"/>
       <c r="O157" s="13"/>
     </row>
-    <row r="158" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -9040,7 +9486,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H158" s="11" t="s">
@@ -9050,7 +9496,7 @@
         <v>752</v>
       </c>
       <c r="J158" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K158" s="8"/>
@@ -9059,7 +9505,7 @@
       <c r="N158" s="8"/>
       <c r="O158" s="13"/>
     </row>
-    <row r="159" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -9075,7 +9521,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H159" s="11" t="s">
@@ -9085,7 +9531,7 @@
         <v>752</v>
       </c>
       <c r="J159" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K159" s="8"/>
@@ -9094,7 +9540,7 @@
       <c r="N159" s="8"/>
       <c r="O159" s="13"/>
     </row>
-    <row r="160" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -9110,7 +9556,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160" s="11" t="s">
@@ -9120,7 +9566,7 @@
         <v>752</v>
       </c>
       <c r="J160" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K160" s="8"/>
@@ -9129,7 +9575,7 @@
       <c r="N160" s="8"/>
       <c r="O160" s="13"/>
     </row>
-    <row r="161" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -9145,7 +9591,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161" s="11" t="s">
@@ -9155,7 +9601,7 @@
         <v>752</v>
       </c>
       <c r="J161" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K161" s="8"/>
@@ -9164,7 +9610,7 @@
       <c r="N161" s="8"/>
       <c r="O161" s="13"/>
     </row>
-    <row r="162" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -9180,7 +9626,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162" s="11" t="s">
@@ -9190,7 +9636,7 @@
         <v>752</v>
       </c>
       <c r="J162" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K162" s="8"/>
@@ -9199,7 +9645,7 @@
       <c r="N162" s="8"/>
       <c r="O162" s="13"/>
     </row>
-    <row r="163" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -9215,7 +9661,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H163" s="11" t="s">
@@ -9225,7 +9671,7 @@
         <v>752</v>
       </c>
       <c r="J163" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K163" s="8"/>
@@ -9234,7 +9680,7 @@
       <c r="N163" s="8"/>
       <c r="O163" s="13"/>
     </row>
-    <row r="164" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -9250,7 +9696,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H164" s="11" t="s">
@@ -9260,7 +9706,7 @@
         <v>752</v>
       </c>
       <c r="J164" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K164" s="8"/>
@@ -9269,7 +9715,7 @@
       <c r="N164" s="8"/>
       <c r="O164" s="13"/>
     </row>
-    <row r="165" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -9285,7 +9731,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H165" s="11" t="s">
@@ -9295,7 +9741,7 @@
         <v>752</v>
       </c>
       <c r="J165" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K165" s="8"/>
@@ -9304,7 +9750,7 @@
       <c r="N165" s="8"/>
       <c r="O165" s="13"/>
     </row>
-    <row r="166" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -9320,7 +9766,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H166" s="11" t="s">
@@ -9330,7 +9776,7 @@
         <v>752</v>
       </c>
       <c r="J166" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K166" s="8"/>
@@ -9339,7 +9785,7 @@
       <c r="N166" s="8"/>
       <c r="O166" s="13"/>
     </row>
-    <row r="167" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -9355,7 +9801,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H167" s="11" t="s">
@@ -9365,7 +9811,7 @@
         <v>752</v>
       </c>
       <c r="J167" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K167" s="8"/>
@@ -9374,7 +9820,7 @@
       <c r="N167" s="8"/>
       <c r="O167" s="13"/>
     </row>
-    <row r="168" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -9390,7 +9836,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H168" s="11" t="s">
@@ -9400,7 +9846,7 @@
         <v>752</v>
       </c>
       <c r="J168" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K168" s="8"/>
@@ -9409,7 +9855,7 @@
       <c r="N168" s="8"/>
       <c r="O168" s="13"/>
     </row>
-    <row r="169" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -9425,7 +9871,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H169" s="11" t="s">
@@ -9435,7 +9881,7 @@
         <v>752</v>
       </c>
       <c r="J169" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K169" s="8"/>
@@ -9444,7 +9890,7 @@
       <c r="N169" s="8"/>
       <c r="O169" s="13"/>
     </row>
-    <row r="170" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -9460,7 +9906,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H170" s="11" t="s">
@@ -9470,7 +9916,7 @@
         <v>752</v>
       </c>
       <c r="J170" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K170" s="8"/>
@@ -9479,7 +9925,7 @@
       <c r="N170" s="8"/>
       <c r="O170" s="13"/>
     </row>
-    <row r="171" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -9495,7 +9941,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H171" s="11" t="s">
@@ -9505,7 +9951,7 @@
         <v>752</v>
       </c>
       <c r="J171" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K171" s="8"/>
@@ -9514,7 +9960,7 @@
       <c r="N171" s="8"/>
       <c r="O171" s="13"/>
     </row>
-    <row r="172" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -9530,7 +9976,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H172" s="11" t="s">
@@ -9540,7 +9986,7 @@
         <v>752</v>
       </c>
       <c r="J172" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K172" s="8"/>
@@ -9549,7 +9995,7 @@
       <c r="N172" s="8"/>
       <c r="O172" s="13"/>
     </row>
-    <row r="173" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -9565,7 +10011,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H173" s="11" t="s">
@@ -9575,7 +10021,7 @@
         <v>752</v>
       </c>
       <c r="J173" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K173" s="8"/>
@@ -9584,7 +10030,7 @@
       <c r="N173" s="8"/>
       <c r="O173" s="13"/>
     </row>
-    <row r="174" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -9600,7 +10046,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H174" s="11" t="s">
@@ -9610,7 +10056,7 @@
         <v>752</v>
       </c>
       <c r="J174" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K174" s="8"/>
@@ -9619,7 +10065,7 @@
       <c r="N174" s="8"/>
       <c r="O174" s="13"/>
     </row>
-    <row r="175" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -9635,7 +10081,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H175" s="11" t="s">
@@ -9645,7 +10091,7 @@
         <v>752</v>
       </c>
       <c r="J175" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K175" s="8"/>
@@ -9654,7 +10100,7 @@
       <c r="N175" s="8"/>
       <c r="O175" s="13"/>
     </row>
-    <row r="176" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -9670,7 +10116,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H176" s="11" t="s">
@@ -9680,7 +10126,7 @@
         <v>752</v>
       </c>
       <c r="J176" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K176" s="8"/>
@@ -9689,7 +10135,7 @@
       <c r="N176" s="8"/>
       <c r="O176" s="13"/>
     </row>
-    <row r="177" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -9705,7 +10151,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H177" s="11" t="s">
@@ -9715,7 +10161,7 @@
         <v>752</v>
       </c>
       <c r="J177" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K177" s="8"/>
@@ -9724,7 +10170,7 @@
       <c r="N177" s="8"/>
       <c r="O177" s="13"/>
     </row>
-    <row r="178" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -9740,7 +10186,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H178" s="11" t="s">
@@ -9750,7 +10196,7 @@
         <v>752</v>
       </c>
       <c r="J178" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K178" s="8"/>
@@ -9759,7 +10205,7 @@
       <c r="N178" s="8"/>
       <c r="O178" s="13"/>
     </row>
-    <row r="179" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -9775,7 +10221,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H179" s="11" t="s">
@@ -9785,7 +10231,7 @@
         <v>752</v>
       </c>
       <c r="J179" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K179" s="8"/>
@@ -9794,7 +10240,7 @@
       <c r="N179" s="8"/>
       <c r="O179" s="13"/>
     </row>
-    <row r="180" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -9810,7 +10256,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H180" s="11" t="s">
@@ -9820,7 +10266,7 @@
         <v>752</v>
       </c>
       <c r="J180" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K180" s="8"/>
@@ -9829,7 +10275,7 @@
       <c r="N180" s="8"/>
       <c r="O180" s="13"/>
     </row>
-    <row r="181" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -9845,7 +10291,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H181" s="11" t="s">
@@ -9855,7 +10301,7 @@
         <v>752</v>
       </c>
       <c r="J181" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K181" s="8"/>
@@ -9864,7 +10310,7 @@
       <c r="N181" s="8"/>
       <c r="O181" s="13"/>
     </row>
-    <row r="182" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -9880,7 +10326,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H182" s="11" t="s">
@@ -9890,7 +10336,7 @@
         <v>752</v>
       </c>
       <c r="J182" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K182" s="8"/>
@@ -9899,7 +10345,7 @@
       <c r="N182" s="8"/>
       <c r="O182" s="13"/>
     </row>
-    <row r="183" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -9915,7 +10361,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H183" s="11" t="s">
@@ -9925,7 +10371,7 @@
         <v>752</v>
       </c>
       <c r="J183" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K183" s="8"/>
@@ -9934,7 +10380,7 @@
       <c r="N183" s="8"/>
       <c r="O183" s="13"/>
     </row>
-    <row r="184" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -9950,7 +10396,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H184" s="11" t="s">
@@ -9960,7 +10406,7 @@
         <v>752</v>
       </c>
       <c r="J184" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K184" s="8"/>
@@ -9969,7 +10415,7 @@
       <c r="N184" s="8"/>
       <c r="O184" s="13"/>
     </row>
-    <row r="185" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -9985,7 +10431,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H185" s="11" t="s">
@@ -9995,7 +10441,7 @@
         <v>752</v>
       </c>
       <c r="J185" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K185" s="8"/>
@@ -10004,7 +10450,7 @@
       <c r="N185" s="8"/>
       <c r="O185" s="13"/>
     </row>
-    <row r="186" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -10020,7 +10466,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H186" s="11" t="s">
@@ -10030,7 +10476,7 @@
         <v>752</v>
       </c>
       <c r="J186" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K186" s="8"/>
@@ -10039,7 +10485,7 @@
       <c r="N186" s="8"/>
       <c r="O186" s="13"/>
     </row>
-    <row r="187" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -10055,7 +10501,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H187" s="11" t="s">
@@ -10065,7 +10511,7 @@
         <v>752</v>
       </c>
       <c r="J187" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K187" s="8"/>
@@ -10074,7 +10520,7 @@
       <c r="N187" s="8"/>
       <c r="O187" s="13"/>
     </row>
-    <row r="188" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -10090,7 +10536,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H188" s="11" t="s">
@@ -10100,7 +10546,7 @@
         <v>752</v>
       </c>
       <c r="J188" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K188" s="8"/>
@@ -10109,7 +10555,7 @@
       <c r="N188" s="8"/>
       <c r="O188" s="13"/>
     </row>
-    <row r="189" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -10125,7 +10571,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H189" s="11" t="s">
@@ -10135,7 +10581,7 @@
         <v>752</v>
       </c>
       <c r="J189" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K189" s="8"/>
@@ -10144,7 +10590,7 @@
       <c r="N189" s="8"/>
       <c r="O189" s="13"/>
     </row>
-    <row r="190" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -10160,7 +10606,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H190" s="11" t="s">
@@ -10170,7 +10616,7 @@
         <v>752</v>
       </c>
       <c r="J190" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>راسب</v>
       </c>
       <c r="K190" s="8"/>
@@ -10179,7 +10625,7 @@
       <c r="N190" s="8"/>
       <c r="O190" s="13"/>
     </row>
-    <row r="191" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -10199,7 +10645,7 @@
         <v>11</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="H191" s="11" t="s">
@@ -10224,7 +10670,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -10244,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="H192" s="11" t="s">
@@ -10254,7 +10700,7 @@
         <v>752</v>
       </c>
       <c r="J192" s="12" t="str">
-        <f t="shared" ref="J192:J255" si="6">IF(G192&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J192:J255" si="8">IF(G192&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K192" s="8"/>
@@ -10269,7 +10715,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -10289,7 +10735,7 @@
         <v>18</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="H193" s="11" t="s">
@@ -10299,7 +10745,7 @@
         <v>752</v>
       </c>
       <c r="J193" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K193" s="8"/>
@@ -10314,7 +10760,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -10334,7 +10780,7 @@
         <v>8</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="H194" s="11" t="s">
@@ -10344,7 +10790,7 @@
         <v>752</v>
       </c>
       <c r="J194" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K194" s="8"/>
@@ -10359,7 +10805,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>194</v>
       </c>
@@ -10379,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" ref="G195:G258" si="7">F195+E195</f>
+        <f t="shared" ref="G195:G258" si="9">F195+E195</f>
         <v>0</v>
       </c>
       <c r="H195" s="11" t="s">
@@ -10389,7 +10835,7 @@
         <v>752</v>
       </c>
       <c r="J195" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K195" s="8"/>
@@ -10404,7 +10850,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -10424,7 +10870,7 @@
         <v>11</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="H196" s="11" t="s">
@@ -10434,7 +10880,7 @@
         <v>752</v>
       </c>
       <c r="J196" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K196" s="8"/>
@@ -10449,7 +10895,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -10469,7 +10915,7 @@
         <v>8</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H197" s="11" t="s">
@@ -10479,7 +10925,7 @@
         <v>752</v>
       </c>
       <c r="J197" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K197" s="8"/>
@@ -10494,7 +10940,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -10514,7 +10960,7 @@
         <v>6</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="H198" s="11" t="s">
@@ -10524,7 +10970,7 @@
         <v>752</v>
       </c>
       <c r="J198" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K198" s="8"/>
@@ -10539,7 +10985,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -10559,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="H199" s="11" t="s">
@@ -10569,7 +11015,7 @@
         <v>752</v>
       </c>
       <c r="J199" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K199" s="8"/>
@@ -10584,7 +11030,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -10604,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="H200" s="11" t="s">
@@ -10614,7 +11060,7 @@
         <v>752</v>
       </c>
       <c r="J200" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K200" s="8"/>
@@ -10629,7 +11075,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>200</v>
       </c>
@@ -10649,7 +11095,7 @@
         <v>5</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H201" s="11" t="s">
@@ -10659,7 +11105,7 @@
         <v>752</v>
       </c>
       <c r="J201" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K201" s="8"/>
@@ -10674,7 +11120,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>201</v>
       </c>
@@ -10694,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H202" s="11" t="s">
@@ -10704,7 +11150,7 @@
         <v>752</v>
       </c>
       <c r="J202" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K202" s="8"/>
@@ -10719,7 +11165,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>202</v>
       </c>
@@ -10739,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H203" s="11" t="s">
@@ -10749,7 +11195,7 @@
         <v>752</v>
       </c>
       <c r="J203" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K203" s="8"/>
@@ -10764,7 +11210,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>203</v>
       </c>
@@ -10784,7 +11230,7 @@
         <v>15</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="H204" s="11" t="s">
@@ -10794,7 +11240,7 @@
         <v>752</v>
       </c>
       <c r="J204" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K204" s="8"/>
@@ -10809,7 +11255,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -10829,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H205" s="11" t="s">
@@ -10839,7 +11285,7 @@
         <v>752</v>
       </c>
       <c r="J205" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K205" s="8"/>
@@ -10854,7 +11300,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>205</v>
       </c>
@@ -10874,7 +11320,7 @@
         <v>8</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H206" s="11" t="s">
@@ -10884,7 +11330,7 @@
         <v>752</v>
       </c>
       <c r="J206" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K206" s="8"/>
@@ -10899,7 +11345,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -10919,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="H207" s="11" t="s">
@@ -10929,7 +11375,7 @@
         <v>752</v>
       </c>
       <c r="J207" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K207" s="8"/>
@@ -10944,7 +11390,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -10964,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H208" s="11" t="s">
@@ -10974,7 +11420,7 @@
         <v>752</v>
       </c>
       <c r="J208" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K208" s="8"/>
@@ -10989,7 +11435,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -11009,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H209" s="11" t="s">
@@ -11019,7 +11465,7 @@
         <v>752</v>
       </c>
       <c r="J209" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K209" s="8"/>
@@ -11034,7 +11480,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -11054,7 +11500,7 @@
         <v>9</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H210" s="11" t="s">
@@ -11064,7 +11510,7 @@
         <v>752</v>
       </c>
       <c r="J210" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K210" s="8"/>
@@ -11079,7 +11525,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -11099,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="H211" s="11" t="s">
@@ -11109,7 +11555,7 @@
         <v>752</v>
       </c>
       <c r="J211" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K211" s="8"/>
@@ -11124,7 +11570,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>211</v>
       </c>
@@ -11144,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H212" s="11" t="s">
@@ -11154,7 +11600,7 @@
         <v>752</v>
       </c>
       <c r="J212" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K212" s="8"/>
@@ -11169,7 +11615,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>212</v>
       </c>
@@ -11189,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H213" s="11" t="s">
@@ -11199,7 +11645,7 @@
         <v>752</v>
       </c>
       <c r="J213" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K213" s="8"/>
@@ -11214,7 +11660,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>213</v>
       </c>
@@ -11234,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H214" s="11" t="s">
@@ -11244,7 +11690,7 @@
         <v>752</v>
       </c>
       <c r="J214" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K214" s="8"/>
@@ -11259,7 +11705,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>214</v>
       </c>
@@ -11279,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H215" s="11" t="s">
@@ -11289,7 +11735,7 @@
         <v>752</v>
       </c>
       <c r="J215" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K215" s="8"/>
@@ -11304,7 +11750,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -11324,7 +11770,7 @@
         <v>5</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="H216" s="11" t="s">
@@ -11334,7 +11780,7 @@
         <v>752</v>
       </c>
       <c r="J216" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K216" s="8"/>
@@ -11349,7 +11795,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>216</v>
       </c>
@@ -11369,7 +11815,7 @@
         <v>6</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="H217" s="11" t="s">
@@ -11379,7 +11825,7 @@
         <v>752</v>
       </c>
       <c r="J217" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K217" s="8"/>
@@ -11394,7 +11840,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>217</v>
       </c>
@@ -11414,7 +11860,7 @@
         <v>13</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="H218" s="11" t="s">
@@ -11424,7 +11870,7 @@
         <v>752</v>
       </c>
       <c r="J218" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K218" s="8"/>
@@ -11439,7 +11885,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>218</v>
       </c>
@@ -11459,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H219" s="11" t="s">
@@ -11469,7 +11915,7 @@
         <v>752</v>
       </c>
       <c r="J219" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K219" s="8"/>
@@ -11484,7 +11930,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>219</v>
       </c>
@@ -11504,7 +11950,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H220" s="11" t="s">
@@ -11514,7 +11960,7 @@
         <v>752</v>
       </c>
       <c r="J220" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K220" s="8"/>
@@ -11529,7 +11975,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>220</v>
       </c>
@@ -11549,7 +11995,7 @@
         <v>11</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H221" s="11" t="s">
@@ -11559,7 +12005,7 @@
         <v>752</v>
       </c>
       <c r="J221" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K221" s="8"/>
@@ -11574,7 +12020,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -11594,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H222" s="11" t="s">
@@ -11604,7 +12050,7 @@
         <v>752</v>
       </c>
       <c r="J222" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K222" s="8"/>
@@ -11619,7 +12065,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>222</v>
       </c>
@@ -11639,7 +12085,7 @@
         <v>9</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="H223" s="11" t="s">
@@ -11649,7 +12095,7 @@
         <v>752</v>
       </c>
       <c r="J223" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K223" s="8"/>
@@ -11664,7 +12110,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -11684,7 +12130,7 @@
         <v>3</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H224" s="11" t="s">
@@ -11694,7 +12140,7 @@
         <v>752</v>
       </c>
       <c r="J224" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K224" s="8"/>
@@ -11709,7 +12155,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>224</v>
       </c>
@@ -11729,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="H225" s="11" t="s">
@@ -11739,7 +12185,7 @@
         <v>752</v>
       </c>
       <c r="J225" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K225" s="8"/>
@@ -11754,7 +12200,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>225</v>
       </c>
@@ -11774,7 +12220,7 @@
         <v>3</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H226" s="11" t="s">
@@ -11784,7 +12230,7 @@
         <v>752</v>
       </c>
       <c r="J226" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K226" s="8"/>
@@ -11799,7 +12245,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>226</v>
       </c>
@@ -11819,7 +12265,7 @@
         <v>17</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="H227" s="11" t="s">
@@ -11829,7 +12275,7 @@
         <v>752</v>
       </c>
       <c r="J227" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K227" s="8"/>
@@ -11844,7 +12290,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>227</v>
       </c>
@@ -11864,7 +12310,7 @@
         <v>16</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H228" s="11" t="s">
@@ -11874,7 +12320,7 @@
         <v>752</v>
       </c>
       <c r="J228" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K228" s="8"/>
@@ -11889,7 +12335,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>228</v>
       </c>
@@ -11909,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H229" s="11" t="s">
@@ -11919,7 +12365,7 @@
         <v>752</v>
       </c>
       <c r="J229" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K229" s="8"/>
@@ -11934,7 +12380,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>229</v>
       </c>
@@ -11954,7 +12400,7 @@
         <v>15</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H230" s="11" t="s">
@@ -11964,7 +12410,7 @@
         <v>752</v>
       </c>
       <c r="J230" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K230" s="8"/>
@@ -11979,7 +12425,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>230</v>
       </c>
@@ -11999,7 +12445,7 @@
         <v>17</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H231" s="11" t="s">
@@ -12009,7 +12455,7 @@
         <v>752</v>
       </c>
       <c r="J231" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K231" s="8"/>
@@ -12024,7 +12470,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -12044,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H232" s="11" t="s">
@@ -12054,7 +12500,7 @@
         <v>752</v>
       </c>
       <c r="J232" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K232" s="8"/>
@@ -12069,7 +12515,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>232</v>
       </c>
@@ -12089,7 +12535,7 @@
         <v>9</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="H233" s="11" t="s">
@@ -12099,7 +12545,7 @@
         <v>752</v>
       </c>
       <c r="J233" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K233" s="8"/>
@@ -12114,7 +12560,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>233</v>
       </c>
@@ -12134,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H234" s="11" t="s">
@@ -12144,7 +12590,7 @@
         <v>752</v>
       </c>
       <c r="J234" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K234" s="8"/>
@@ -12159,7 +12605,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>234</v>
       </c>
@@ -12179,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H235" s="11" t="s">
@@ -12189,7 +12635,7 @@
         <v>752</v>
       </c>
       <c r="J235" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K235" s="8"/>
@@ -12204,7 +12650,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>235</v>
       </c>
@@ -12224,7 +12670,7 @@
         <v>16</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H236" s="11" t="s">
@@ -12234,7 +12680,7 @@
         <v>752</v>
       </c>
       <c r="J236" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K236" s="8"/>
@@ -12249,7 +12695,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>236</v>
       </c>
@@ -12269,7 +12715,7 @@
         <v>15</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="H237" s="11" t="s">
@@ -12279,7 +12725,7 @@
         <v>752</v>
       </c>
       <c r="J237" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ناجح</v>
       </c>
       <c r="K237" s="8">
@@ -12298,7 +12744,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>237</v>
       </c>
@@ -12318,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H238" s="11" t="s">
@@ -12328,7 +12774,7 @@
         <v>752</v>
       </c>
       <c r="J238" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K238" s="8"/>
@@ -12343,7 +12789,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>238</v>
       </c>
@@ -12363,7 +12809,7 @@
         <v>12</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="H239" s="11" t="s">
@@ -12373,7 +12819,7 @@
         <v>752</v>
       </c>
       <c r="J239" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K239" s="8"/>
@@ -12388,7 +12834,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>239</v>
       </c>
@@ -12408,7 +12854,7 @@
         <v>7</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H240" s="11" t="s">
@@ -12418,7 +12864,7 @@
         <v>752</v>
       </c>
       <c r="J240" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K240" s="8"/>
@@ -12433,7 +12879,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>240</v>
       </c>
@@ -12453,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H241" s="11" t="s">
@@ -12463,7 +12909,7 @@
         <v>752</v>
       </c>
       <c r="J241" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K241" s="8"/>
@@ -12478,7 +12924,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>241</v>
       </c>
@@ -12498,7 +12944,7 @@
         <v>2</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="H242" s="11" t="s">
@@ -12508,7 +12954,7 @@
         <v>752</v>
       </c>
       <c r="J242" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K242" s="8"/>
@@ -12523,7 +12969,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>242</v>
       </c>
@@ -12543,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H243" s="11" t="s">
@@ -12553,7 +12999,7 @@
         <v>752</v>
       </c>
       <c r="J243" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K243" s="8"/>
@@ -12568,7 +13014,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -12588,7 +13034,7 @@
         <v>16</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="H244" s="11" t="s">
@@ -12598,7 +13044,7 @@
         <v>752</v>
       </c>
       <c r="J244" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K244" s="8"/>
@@ -12613,7 +13059,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -12633,7 +13079,7 @@
         <v>14</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="H245" s="11" t="s">
@@ -12643,7 +13089,7 @@
         <v>752</v>
       </c>
       <c r="J245" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K245" s="8"/>
@@ -12658,7 +13104,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>245</v>
       </c>
@@ -12678,7 +13124,7 @@
         <v>8</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="H246" s="11" t="s">
@@ -12688,7 +13134,7 @@
         <v>752</v>
       </c>
       <c r="J246" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K246" s="8"/>
@@ -12703,7 +13149,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>246</v>
       </c>
@@ -12723,7 +13169,7 @@
         <v>10</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="H247" s="11" t="s">
@@ -12733,7 +13179,7 @@
         <v>752</v>
       </c>
       <c r="J247" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K247" s="8"/>
@@ -12748,7 +13194,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -12768,7 +13214,7 @@
         <v>16</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="H248" s="11" t="s">
@@ -12778,7 +13224,7 @@
         <v>752</v>
       </c>
       <c r="J248" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K248" s="8"/>
@@ -12793,7 +13239,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -12813,7 +13259,7 @@
         <v>15</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="H249" s="11" t="s">
@@ -12823,7 +13269,7 @@
         <v>752</v>
       </c>
       <c r="J249" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>ناجح</v>
       </c>
       <c r="K249" s="8">
@@ -12842,7 +13288,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>249</v>
       </c>
@@ -12862,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H250" s="11" t="s">
@@ -12872,7 +13318,7 @@
         <v>752</v>
       </c>
       <c r="J250" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K250" s="8"/>
@@ -12887,7 +13333,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>250</v>
       </c>
@@ -12907,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H251" s="11" t="s">
@@ -12917,7 +13363,7 @@
         <v>752</v>
       </c>
       <c r="J251" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K251" s="8"/>
@@ -12932,7 +13378,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>251</v>
       </c>
@@ -12948,7 +13394,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H252" s="11" t="s">
@@ -12958,7 +13404,7 @@
         <v>752</v>
       </c>
       <c r="J252" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K252" s="8"/>
@@ -12967,7 +13413,7 @@
       <c r="N252" s="8"/>
       <c r="O252" s="13"/>
     </row>
-    <row r="253" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>252</v>
       </c>
@@ -12983,7 +13429,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H253" s="11" t="s">
@@ -12993,7 +13439,7 @@
         <v>752</v>
       </c>
       <c r="J253" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K253" s="8"/>
@@ -13002,7 +13448,7 @@
       <c r="N253" s="8"/>
       <c r="O253" s="13"/>
     </row>
-    <row r="254" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -13018,7 +13464,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H254" s="11" t="s">
@@ -13028,7 +13474,7 @@
         <v>752</v>
       </c>
       <c r="J254" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K254" s="8"/>
@@ -13037,7 +13483,7 @@
       <c r="N254" s="8"/>
       <c r="O254" s="13"/>
     </row>
-    <row r="255" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -13053,7 +13499,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H255" s="11" t="s">
@@ -13063,7 +13509,7 @@
         <v>752</v>
       </c>
       <c r="J255" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>راسب</v>
       </c>
       <c r="K255" s="8"/>
@@ -13072,7 +13518,7 @@
       <c r="N255" s="8"/>
       <c r="O255" s="13"/>
     </row>
-    <row r="256" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>255</v>
       </c>
@@ -13088,7 +13534,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H256" s="11" t="s">
@@ -13098,7 +13544,7 @@
         <v>752</v>
       </c>
       <c r="J256" s="12" t="str">
-        <f t="shared" ref="J256:J319" si="8">IF(G256&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J256:J319" si="10">IF(G256&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K256" s="8"/>
@@ -13107,7 +13553,7 @@
       <c r="N256" s="8"/>
       <c r="O256" s="13"/>
     </row>
-    <row r="257" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>256</v>
       </c>
@@ -13123,7 +13569,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H257" s="11" t="s">
@@ -13133,7 +13579,7 @@
         <v>752</v>
       </c>
       <c r="J257" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K257" s="8"/>
@@ -13142,7 +13588,7 @@
       <c r="N257" s="8"/>
       <c r="O257" s="13"/>
     </row>
-    <row r="258" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>257</v>
       </c>
@@ -13158,7 +13604,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H258" s="11" t="s">
@@ -13168,7 +13614,7 @@
         <v>752</v>
       </c>
       <c r="J258" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K258" s="8"/>
@@ -13177,7 +13623,7 @@
       <c r="N258" s="8"/>
       <c r="O258" s="13"/>
     </row>
-    <row r="259" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>258</v>
       </c>
@@ -13193,7 +13639,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10">
-        <f t="shared" ref="G259:G322" si="9">F259+E259</f>
+        <f t="shared" ref="G259:G322" si="11">F259+E259</f>
         <v>0</v>
       </c>
       <c r="H259" s="11" t="s">
@@ -13203,7 +13649,7 @@
         <v>752</v>
       </c>
       <c r="J259" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K259" s="8"/>
@@ -13212,7 +13658,7 @@
       <c r="N259" s="8"/>
       <c r="O259" s="13"/>
     </row>
-    <row r="260" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>259</v>
       </c>
@@ -13228,7 +13674,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H260" s="11" t="s">
@@ -13238,7 +13684,7 @@
         <v>752</v>
       </c>
       <c r="J260" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K260" s="8"/>
@@ -13247,7 +13693,7 @@
       <c r="N260" s="8"/>
       <c r="O260" s="13"/>
     </row>
-    <row r="261" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>260</v>
       </c>
@@ -13263,7 +13709,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H261" s="11" t="s">
@@ -13273,7 +13719,7 @@
         <v>752</v>
       </c>
       <c r="J261" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K261" s="8"/>
@@ -13282,7 +13728,7 @@
       <c r="N261" s="8"/>
       <c r="O261" s="13"/>
     </row>
-    <row r="262" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>261</v>
       </c>
@@ -13298,7 +13744,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H262" s="11" t="s">
@@ -13308,7 +13754,7 @@
         <v>752</v>
       </c>
       <c r="J262" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K262" s="8"/>
@@ -13317,7 +13763,7 @@
       <c r="N262" s="8"/>
       <c r="O262" s="13"/>
     </row>
-    <row r="263" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>262</v>
       </c>
@@ -13333,7 +13779,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H263" s="11" t="s">
@@ -13343,7 +13789,7 @@
         <v>752</v>
       </c>
       <c r="J263" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K263" s="8"/>
@@ -13352,7 +13798,7 @@
       <c r="N263" s="8"/>
       <c r="O263" s="13"/>
     </row>
-    <row r="264" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>263</v>
       </c>
@@ -13368,7 +13814,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H264" s="11" t="s">
@@ -13378,7 +13824,7 @@
         <v>752</v>
       </c>
       <c r="J264" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K264" s="8"/>
@@ -13387,7 +13833,7 @@
       <c r="N264" s="8"/>
       <c r="O264" s="13"/>
     </row>
-    <row r="265" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>264</v>
       </c>
@@ -13403,7 +13849,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H265" s="11" t="s">
@@ -13413,7 +13859,7 @@
         <v>752</v>
       </c>
       <c r="J265" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K265" s="8"/>
@@ -13422,7 +13868,7 @@
       <c r="N265" s="8"/>
       <c r="O265" s="13"/>
     </row>
-    <row r="266" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>265</v>
       </c>
@@ -13438,7 +13884,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H266" s="11" t="s">
@@ -13448,7 +13894,7 @@
         <v>752</v>
       </c>
       <c r="J266" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K266" s="8"/>
@@ -13457,7 +13903,7 @@
       <c r="N266" s="8"/>
       <c r="O266" s="13"/>
     </row>
-    <row r="267" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>266</v>
       </c>
@@ -13473,7 +13919,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H267" s="11" t="s">
@@ -13483,7 +13929,7 @@
         <v>752</v>
       </c>
       <c r="J267" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K267" s="8"/>
@@ -13492,7 +13938,7 @@
       <c r="N267" s="8"/>
       <c r="O267" s="13"/>
     </row>
-    <row r="268" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>267</v>
       </c>
@@ -13508,7 +13954,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H268" s="11" t="s">
@@ -13518,7 +13964,7 @@
         <v>752</v>
       </c>
       <c r="J268" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K268" s="8"/>
@@ -13527,7 +13973,7 @@
       <c r="N268" s="8"/>
       <c r="O268" s="13"/>
     </row>
-    <row r="269" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>268</v>
       </c>
@@ -13543,7 +13989,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H269" s="11" t="s">
@@ -13553,7 +13999,7 @@
         <v>752</v>
       </c>
       <c r="J269" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K269" s="8"/>
@@ -13562,7 +14008,7 @@
       <c r="N269" s="8"/>
       <c r="O269" s="13"/>
     </row>
-    <row r="270" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>269</v>
       </c>
@@ -13578,7 +14024,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H270" s="11" t="s">
@@ -13588,7 +14034,7 @@
         <v>752</v>
       </c>
       <c r="J270" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K270" s="8"/>
@@ -13597,7 +14043,7 @@
       <c r="N270" s="8"/>
       <c r="O270" s="13"/>
     </row>
-    <row r="271" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>270</v>
       </c>
@@ -13613,7 +14059,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H271" s="11" t="s">
@@ -13623,7 +14069,7 @@
         <v>752</v>
       </c>
       <c r="J271" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K271" s="8"/>
@@ -13632,7 +14078,7 @@
       <c r="N271" s="8"/>
       <c r="O271" s="13"/>
     </row>
-    <row r="272" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>271</v>
       </c>
@@ -13648,7 +14094,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H272" s="11" t="s">
@@ -13658,7 +14104,7 @@
         <v>752</v>
       </c>
       <c r="J272" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K272" s="8"/>
@@ -13667,7 +14113,7 @@
       <c r="N272" s="8"/>
       <c r="O272" s="13"/>
     </row>
-    <row r="273" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>272</v>
       </c>
@@ -13683,7 +14129,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H273" s="11" t="s">
@@ -13693,7 +14139,7 @@
         <v>752</v>
       </c>
       <c r="J273" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K273" s="8"/>
@@ -13702,7 +14148,7 @@
       <c r="N273" s="8"/>
       <c r="O273" s="13"/>
     </row>
-    <row r="274" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>273</v>
       </c>
@@ -13718,7 +14164,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H274" s="11" t="s">
@@ -13728,7 +14174,7 @@
         <v>752</v>
       </c>
       <c r="J274" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K274" s="8"/>
@@ -13737,7 +14183,7 @@
       <c r="N274" s="8"/>
       <c r="O274" s="13"/>
     </row>
-    <row r="275" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>274</v>
       </c>
@@ -13753,7 +14199,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H275" s="11" t="s">
@@ -13763,7 +14209,7 @@
         <v>752</v>
       </c>
       <c r="J275" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K275" s="8"/>
@@ -13772,7 +14218,7 @@
       <c r="N275" s="8"/>
       <c r="O275" s="13"/>
     </row>
-    <row r="276" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>275</v>
       </c>
@@ -13788,7 +14234,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H276" s="11" t="s">
@@ -13798,7 +14244,7 @@
         <v>752</v>
       </c>
       <c r="J276" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K276" s="8"/>
@@ -13807,7 +14253,7 @@
       <c r="N276" s="8"/>
       <c r="O276" s="13"/>
     </row>
-    <row r="277" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>276</v>
       </c>
@@ -13823,7 +14269,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H277" s="11" t="s">
@@ -13833,7 +14279,7 @@
         <v>752</v>
       </c>
       <c r="J277" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K277" s="8"/>
@@ -13842,7 +14288,7 @@
       <c r="N277" s="8"/>
       <c r="O277" s="13"/>
     </row>
-    <row r="278" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>277</v>
       </c>
@@ -13858,7 +14304,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H278" s="11" t="s">
@@ -13868,7 +14314,7 @@
         <v>752</v>
       </c>
       <c r="J278" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K278" s="8"/>
@@ -13877,7 +14323,7 @@
       <c r="N278" s="8"/>
       <c r="O278" s="13"/>
     </row>
-    <row r="279" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>278</v>
       </c>
@@ -13893,7 +14339,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H279" s="11" t="s">
@@ -13903,7 +14349,7 @@
         <v>752</v>
       </c>
       <c r="J279" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K279" s="8"/>
@@ -13912,7 +14358,7 @@
       <c r="N279" s="8"/>
       <c r="O279" s="13"/>
     </row>
-    <row r="280" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>279</v>
       </c>
@@ -13928,7 +14374,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H280" s="11" t="s">
@@ -13938,7 +14384,7 @@
         <v>752</v>
       </c>
       <c r="J280" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K280" s="8"/>
@@ -13947,7 +14393,7 @@
       <c r="N280" s="8"/>
       <c r="O280" s="13"/>
     </row>
-    <row r="281" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>280</v>
       </c>
@@ -13963,7 +14409,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H281" s="11" t="s">
@@ -13973,7 +14419,7 @@
         <v>752</v>
       </c>
       <c r="J281" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K281" s="8"/>
@@ -13982,7 +14428,7 @@
       <c r="N281" s="8"/>
       <c r="O281" s="13"/>
     </row>
-    <row r="282" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -13998,7 +14444,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H282" s="11" t="s">
@@ -14008,7 +14454,7 @@
         <v>752</v>
       </c>
       <c r="J282" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K282" s="8"/>
@@ -14017,7 +14463,7 @@
       <c r="N282" s="8"/>
       <c r="O282" s="13"/>
     </row>
-    <row r="283" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>282</v>
       </c>
@@ -14033,7 +14479,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H283" s="11" t="s">
@@ -14043,7 +14489,7 @@
         <v>752</v>
       </c>
       <c r="J283" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K283" s="8"/>
@@ -14052,7 +14498,7 @@
       <c r="N283" s="8"/>
       <c r="O283" s="13"/>
     </row>
-    <row r="284" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>283</v>
       </c>
@@ -14068,7 +14514,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H284" s="11" t="s">
@@ -14078,7 +14524,7 @@
         <v>752</v>
       </c>
       <c r="J284" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K284" s="8"/>
@@ -14087,7 +14533,7 @@
       <c r="N284" s="8"/>
       <c r="O284" s="13"/>
     </row>
-    <row r="285" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>284</v>
       </c>
@@ -14103,7 +14549,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H285" s="11" t="s">
@@ -14113,7 +14559,7 @@
         <v>752</v>
       </c>
       <c r="J285" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K285" s="8"/>
@@ -14122,7 +14568,7 @@
       <c r="N285" s="8"/>
       <c r="O285" s="13"/>
     </row>
-    <row r="286" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>285</v>
       </c>
@@ -14138,7 +14584,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H286" s="11" t="s">
@@ -14148,7 +14594,7 @@
         <v>752</v>
       </c>
       <c r="J286" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K286" s="8"/>
@@ -14157,7 +14603,7 @@
       <c r="N286" s="8"/>
       <c r="O286" s="13"/>
     </row>
-    <row r="287" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>286</v>
       </c>
@@ -14173,7 +14619,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H287" s="11" t="s">
@@ -14183,7 +14629,7 @@
         <v>752</v>
       </c>
       <c r="J287" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K287" s="8"/>
@@ -14192,7 +14638,7 @@
       <c r="N287" s="8"/>
       <c r="O287" s="13"/>
     </row>
-    <row r="288" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>287</v>
       </c>
@@ -14208,7 +14654,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H288" s="11" t="s">
@@ -14218,7 +14664,7 @@
         <v>752</v>
       </c>
       <c r="J288" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K288" s="8"/>
@@ -14227,7 +14673,7 @@
       <c r="N288" s="8"/>
       <c r="O288" s="13"/>
     </row>
-    <row r="289" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>288</v>
       </c>
@@ -14243,7 +14689,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H289" s="11" t="s">
@@ -14253,7 +14699,7 @@
         <v>752</v>
       </c>
       <c r="J289" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K289" s="8"/>
@@ -14262,7 +14708,7 @@
       <c r="N289" s="8"/>
       <c r="O289" s="13"/>
     </row>
-    <row r="290" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>289</v>
       </c>
@@ -14278,7 +14724,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H290" s="11" t="s">
@@ -14288,7 +14734,7 @@
         <v>752</v>
       </c>
       <c r="J290" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K290" s="8"/>
@@ -14297,7 +14743,7 @@
       <c r="N290" s="8"/>
       <c r="O290" s="13"/>
     </row>
-    <row r="291" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>290</v>
       </c>
@@ -14313,7 +14759,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H291" s="11" t="s">
@@ -14323,7 +14769,7 @@
         <v>752</v>
       </c>
       <c r="J291" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K291" s="8"/>
@@ -14332,7 +14778,7 @@
       <c r="N291" s="8"/>
       <c r="O291" s="13"/>
     </row>
-    <row r="292" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>291</v>
       </c>
@@ -14348,7 +14794,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H292" s="11" t="s">
@@ -14358,7 +14804,7 @@
         <v>752</v>
       </c>
       <c r="J292" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K292" s="8"/>
@@ -14367,7 +14813,7 @@
       <c r="N292" s="8"/>
       <c r="O292" s="13"/>
     </row>
-    <row r="293" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <v>292</v>
       </c>
@@ -14383,7 +14829,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H293" s="11" t="s">
@@ -14393,7 +14839,7 @@
         <v>752</v>
       </c>
       <c r="J293" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K293" s="8"/>
@@ -14402,7 +14848,7 @@
       <c r="N293" s="8"/>
       <c r="O293" s="13"/>
     </row>
-    <row r="294" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <v>293</v>
       </c>
@@ -14418,7 +14864,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H294" s="11" t="s">
@@ -14428,7 +14874,7 @@
         <v>752</v>
       </c>
       <c r="J294" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K294" s="8"/>
@@ -14437,7 +14883,7 @@
       <c r="N294" s="8"/>
       <c r="O294" s="13"/>
     </row>
-    <row r="295" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <v>294</v>
       </c>
@@ -14453,7 +14899,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H295" s="11" t="s">
@@ -14463,7 +14909,7 @@
         <v>752</v>
       </c>
       <c r="J295" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K295" s="8"/>
@@ -14472,7 +14918,7 @@
       <c r="N295" s="8"/>
       <c r="O295" s="13"/>
     </row>
-    <row r="296" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -14488,7 +14934,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H296" s="11" t="s">
@@ -14498,7 +14944,7 @@
         <v>752</v>
       </c>
       <c r="J296" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K296" s="8"/>
@@ -14507,7 +14953,7 @@
       <c r="N296" s="8"/>
       <c r="O296" s="13"/>
     </row>
-    <row r="297" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -14523,7 +14969,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H297" s="11" t="s">
@@ -14533,7 +14979,7 @@
         <v>752</v>
       </c>
       <c r="J297" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K297" s="8"/>
@@ -14542,7 +14988,7 @@
       <c r="N297" s="8"/>
       <c r="O297" s="13"/>
     </row>
-    <row r="298" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <v>297</v>
       </c>
@@ -14558,7 +15004,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H298" s="11" t="s">
@@ -14568,7 +15014,7 @@
         <v>752</v>
       </c>
       <c r="J298" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K298" s="8"/>
@@ -14577,7 +15023,7 @@
       <c r="N298" s="8"/>
       <c r="O298" s="13"/>
     </row>
-    <row r="299" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <v>298</v>
       </c>
@@ -14593,7 +15039,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H299" s="11" t="s">
@@ -14603,7 +15049,7 @@
         <v>752</v>
       </c>
       <c r="J299" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K299" s="8"/>
@@ -14612,7 +15058,7 @@
       <c r="N299" s="8"/>
       <c r="O299" s="13"/>
     </row>
-    <row r="300" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <v>299</v>
       </c>
@@ -14628,7 +15074,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H300" s="11" t="s">
@@ -14638,7 +15084,7 @@
         <v>752</v>
       </c>
       <c r="J300" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K300" s="8"/>
@@ -14647,7 +15093,7 @@
       <c r="N300" s="8"/>
       <c r="O300" s="13"/>
     </row>
-    <row r="301" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <v>300</v>
       </c>
@@ -14663,7 +15109,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H301" s="11" t="s">
@@ -14673,7 +15119,7 @@
         <v>752</v>
       </c>
       <c r="J301" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K301" s="8"/>
@@ -14682,7 +15128,7 @@
       <c r="N301" s="8"/>
       <c r="O301" s="13"/>
     </row>
-    <row r="302" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <v>301</v>
       </c>
@@ -14698,7 +15144,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H302" s="11" t="s">
@@ -14708,7 +15154,7 @@
         <v>752</v>
       </c>
       <c r="J302" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K302" s="8"/>
@@ -14717,7 +15163,7 @@
       <c r="N302" s="8"/>
       <c r="O302" s="13"/>
     </row>
-    <row r="303" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <v>302</v>
       </c>
@@ -14733,7 +15179,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H303" s="11" t="s">
@@ -14743,7 +15189,7 @@
         <v>752</v>
       </c>
       <c r="J303" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K303" s="8"/>
@@ -14752,7 +15198,7 @@
       <c r="N303" s="8"/>
       <c r="O303" s="13"/>
     </row>
-    <row r="304" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <v>303</v>
       </c>
@@ -14768,7 +15214,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H304" s="11" t="s">
@@ -14778,7 +15224,7 @@
         <v>752</v>
       </c>
       <c r="J304" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K304" s="8"/>
@@ -14787,7 +15233,7 @@
       <c r="N304" s="8"/>
       <c r="O304" s="13"/>
     </row>
-    <row r="305" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <v>304</v>
       </c>
@@ -14803,7 +15249,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H305" s="11" t="s">
@@ -14813,7 +15259,7 @@
         <v>752</v>
       </c>
       <c r="J305" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K305" s="8"/>
@@ -14822,7 +15268,7 @@
       <c r="N305" s="8"/>
       <c r="O305" s="13"/>
     </row>
-    <row r="306" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <v>305</v>
       </c>
@@ -14838,7 +15284,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H306" s="11" t="s">
@@ -14848,7 +15294,7 @@
         <v>752</v>
       </c>
       <c r="J306" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K306" s="8"/>
@@ -14857,7 +15303,7 @@
       <c r="N306" s="8"/>
       <c r="O306" s="13"/>
     </row>
-    <row r="307" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <v>306</v>
       </c>
@@ -14873,7 +15319,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H307" s="11" t="s">
@@ -14883,7 +15329,7 @@
         <v>752</v>
       </c>
       <c r="J307" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K307" s="8"/>
@@ -14892,7 +15338,7 @@
       <c r="N307" s="8"/>
       <c r="O307" s="13"/>
     </row>
-    <row r="308" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <v>307</v>
       </c>
@@ -14908,7 +15354,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H308" s="11" t="s">
@@ -14918,7 +15364,7 @@
         <v>752</v>
       </c>
       <c r="J308" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K308" s="8"/>
@@ -14927,7 +15373,7 @@
       <c r="N308" s="8"/>
       <c r="O308" s="13"/>
     </row>
-    <row r="309" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <v>308</v>
       </c>
@@ -14943,7 +15389,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H309" s="11" t="s">
@@ -14953,7 +15399,7 @@
         <v>752</v>
       </c>
       <c r="J309" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K309" s="8"/>
@@ -14962,7 +15408,7 @@
       <c r="N309" s="8"/>
       <c r="O309" s="13"/>
     </row>
-    <row r="310" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <v>309</v>
       </c>
@@ -14978,7 +15424,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H310" s="11" t="s">
@@ -14988,7 +15434,7 @@
         <v>752</v>
       </c>
       <c r="J310" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K310" s="8"/>
@@ -14997,7 +15443,7 @@
       <c r="N310" s="8"/>
       <c r="O310" s="13"/>
     </row>
-    <row r="311" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <v>310</v>
       </c>
@@ -15013,7 +15459,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H311" s="11" t="s">
@@ -15023,7 +15469,7 @@
         <v>752</v>
       </c>
       <c r="J311" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K311" s="8"/>
@@ -15032,7 +15478,7 @@
       <c r="N311" s="8"/>
       <c r="O311" s="13"/>
     </row>
-    <row r="312" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <v>311</v>
       </c>
@@ -15048,7 +15494,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H312" s="11" t="s">
@@ -15058,7 +15504,7 @@
         <v>752</v>
       </c>
       <c r="J312" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K312" s="8"/>
@@ -15067,7 +15513,7 @@
       <c r="N312" s="8"/>
       <c r="O312" s="13"/>
     </row>
-    <row r="313" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <v>312</v>
       </c>
@@ -15083,7 +15529,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H313" s="11" t="s">
@@ -15093,7 +15539,7 @@
         <v>752</v>
       </c>
       <c r="J313" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K313" s="8"/>
@@ -15102,7 +15548,7 @@
       <c r="N313" s="8"/>
       <c r="O313" s="13"/>
     </row>
-    <row r="314" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <v>313</v>
       </c>
@@ -15118,7 +15564,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H314" s="11" t="s">
@@ -15128,7 +15574,7 @@
         <v>752</v>
       </c>
       <c r="J314" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K314" s="8"/>
@@ -15137,7 +15583,7 @@
       <c r="N314" s="8"/>
       <c r="O314" s="13"/>
     </row>
-    <row r="315" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <v>314</v>
       </c>
@@ -15153,7 +15599,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H315" s="11" t="s">
@@ -15163,7 +15609,7 @@
         <v>752</v>
       </c>
       <c r="J315" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K315" s="8"/>
@@ -15172,7 +15618,7 @@
       <c r="N315" s="8"/>
       <c r="O315" s="13"/>
     </row>
-    <row r="316" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <v>315</v>
       </c>
@@ -15188,7 +15634,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H316" s="11" t="s">
@@ -15198,7 +15644,7 @@
         <v>752</v>
       </c>
       <c r="J316" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K316" s="8"/>
@@ -15207,7 +15653,7 @@
       <c r="N316" s="8"/>
       <c r="O316" s="13"/>
     </row>
-    <row r="317" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <v>316</v>
       </c>
@@ -15223,7 +15669,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
       <c r="G317" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H317" s="11" t="s">
@@ -15233,7 +15679,7 @@
         <v>752</v>
       </c>
       <c r="J317" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K317" s="8"/>
@@ -15242,7 +15688,7 @@
       <c r="N317" s="8"/>
       <c r="O317" s="13"/>
     </row>
-    <row r="318" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <v>317</v>
       </c>
@@ -15258,7 +15704,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H318" s="11" t="s">
@@ -15268,7 +15714,7 @@
         <v>752</v>
       </c>
       <c r="J318" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K318" s="8"/>
@@ -15277,7 +15723,7 @@
       <c r="N318" s="8"/>
       <c r="O318" s="13"/>
     </row>
-    <row r="319" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <v>318</v>
       </c>
@@ -15293,7 +15739,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H319" s="11" t="s">
@@ -15303,7 +15749,7 @@
         <v>752</v>
       </c>
       <c r="J319" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>راسب</v>
       </c>
       <c r="K319" s="8"/>
@@ -15312,7 +15758,7 @@
       <c r="N319" s="8"/>
       <c r="O319" s="13"/>
     </row>
-    <row r="320" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <v>319</v>
       </c>
@@ -15328,7 +15774,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H320" s="11" t="s">
@@ -15338,7 +15784,7 @@
         <v>752</v>
       </c>
       <c r="J320" s="12" t="str">
-        <f t="shared" ref="J320:J365" si="10">IF(G320&gt;=50,"ناجح","راسب")</f>
+        <f t="shared" ref="J320:J365" si="12">IF(G320&gt;=50,"ناجح","راسب")</f>
         <v>راسب</v>
       </c>
       <c r="K320" s="8"/>
@@ -15347,7 +15793,7 @@
       <c r="N320" s="8"/>
       <c r="O320" s="13"/>
     </row>
-    <row r="321" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <v>320</v>
       </c>
@@ -15363,7 +15809,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H321" s="11" t="s">
@@ -15373,7 +15819,7 @@
         <v>752</v>
       </c>
       <c r="J321" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K321" s="8"/>
@@ -15382,7 +15828,7 @@
       <c r="N321" s="8"/>
       <c r="O321" s="13"/>
     </row>
-    <row r="322" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <v>321</v>
       </c>
@@ -15398,7 +15844,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H322" s="11" t="s">
@@ -15408,7 +15854,7 @@
         <v>752</v>
       </c>
       <c r="J322" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K322" s="8"/>
@@ -15417,7 +15863,7 @@
       <c r="N322" s="8"/>
       <c r="O322" s="13"/>
     </row>
-    <row r="323" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <v>322</v>
       </c>
@@ -15433,7 +15879,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="10">
-        <f t="shared" ref="G323:G365" si="11">F323+E323</f>
+        <f t="shared" ref="G323:G365" si="13">F323+E323</f>
         <v>0</v>
       </c>
       <c r="H323" s="11" t="s">
@@ -15443,7 +15889,7 @@
         <v>752</v>
       </c>
       <c r="J323" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K323" s="8"/>
@@ -15452,7 +15898,7 @@
       <c r="N323" s="8"/>
       <c r="O323" s="13"/>
     </row>
-    <row r="324" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <v>323</v>
       </c>
@@ -15468,7 +15914,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H324" s="11" t="s">
@@ -15478,7 +15924,7 @@
         <v>752</v>
       </c>
       <c r="J324" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K324" s="8"/>
@@ -15487,7 +15933,7 @@
       <c r="N324" s="8"/>
       <c r="O324" s="13"/>
     </row>
-    <row r="325" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <v>324</v>
       </c>
@@ -15503,7 +15949,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H325" s="11" t="s">
@@ -15513,7 +15959,7 @@
         <v>752</v>
       </c>
       <c r="J325" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K325" s="8"/>
@@ -15522,7 +15968,7 @@
       <c r="N325" s="8"/>
       <c r="O325" s="13"/>
     </row>
-    <row r="326" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <v>325</v>
       </c>
@@ -15538,7 +15984,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H326" s="11" t="s">
@@ -15548,7 +15994,7 @@
         <v>752</v>
       </c>
       <c r="J326" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K326" s="8"/>
@@ -15557,7 +16003,7 @@
       <c r="N326" s="8"/>
       <c r="O326" s="13"/>
     </row>
-    <row r="327" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <v>326</v>
       </c>
@@ -15573,7 +16019,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H327" s="11" t="s">
@@ -15583,7 +16029,7 @@
         <v>752</v>
       </c>
       <c r="J327" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K327" s="8"/>
@@ -15592,7 +16038,7 @@
       <c r="N327" s="8"/>
       <c r="O327" s="13"/>
     </row>
-    <row r="328" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
         <v>327</v>
       </c>
@@ -15608,7 +16054,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
       <c r="G328" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H328" s="11" t="s">
@@ -15618,7 +16064,7 @@
         <v>752</v>
       </c>
       <c r="J328" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K328" s="8"/>
@@ -15627,7 +16073,7 @@
       <c r="N328" s="8"/>
       <c r="O328" s="13"/>
     </row>
-    <row r="329" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <v>328</v>
       </c>
@@ -15640,11 +16086,15 @@
       <c r="D329" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
+      <c r="E329" s="10">
+        <v>25</v>
+      </c>
+      <c r="F329" s="10">
+        <v>8</v>
+      </c>
       <c r="G329" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>33</v>
       </c>
       <c r="H329" s="11" t="s">
         <v>387</v>
@@ -15653,7 +16103,7 @@
         <v>752</v>
       </c>
       <c r="J329" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K329" s="8"/>
@@ -15662,7 +16112,7 @@
       <c r="N329" s="8"/>
       <c r="O329" s="13"/>
     </row>
-    <row r="330" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <v>329</v>
       </c>
@@ -15678,7 +16128,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H330" s="11" t="s">
@@ -15688,7 +16138,7 @@
         <v>752</v>
       </c>
       <c r="J330" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K330" s="8"/>
@@ -15697,7 +16147,7 @@
       <c r="N330" s="8"/>
       <c r="O330" s="13"/>
     </row>
-    <row r="331" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <v>330</v>
       </c>
@@ -15713,7 +16163,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H331" s="11" t="s">
@@ -15723,7 +16173,7 @@
         <v>752</v>
       </c>
       <c r="J331" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K331" s="8"/>
@@ -15732,7 +16182,7 @@
       <c r="N331" s="8"/>
       <c r="O331" s="13"/>
     </row>
-    <row r="332" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <v>331</v>
       </c>
@@ -15748,7 +16198,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H332" s="11" t="s">
@@ -15758,7 +16208,7 @@
         <v>752</v>
       </c>
       <c r="J332" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K332" s="8"/>
@@ -15767,7 +16217,7 @@
       <c r="N332" s="8"/>
       <c r="O332" s="13"/>
     </row>
-    <row r="333" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <v>332</v>
       </c>
@@ -15783,7 +16233,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H333" s="11" t="s">
@@ -15793,7 +16243,7 @@
         <v>752</v>
       </c>
       <c r="J333" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K333" s="8"/>
@@ -15802,7 +16252,7 @@
       <c r="N333" s="8"/>
       <c r="O333" s="13"/>
     </row>
-    <row r="334" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <v>333</v>
       </c>
@@ -15818,7 +16268,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H334" s="11" t="s">
@@ -15828,7 +16278,7 @@
         <v>752</v>
       </c>
       <c r="J334" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K334" s="8"/>
@@ -15837,7 +16287,7 @@
       <c r="N334" s="8"/>
       <c r="O334" s="13"/>
     </row>
-    <row r="335" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <v>334</v>
       </c>
@@ -15853,7 +16303,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H335" s="11" t="s">
@@ -15863,7 +16313,7 @@
         <v>752</v>
       </c>
       <c r="J335" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K335" s="8"/>
@@ -15872,7 +16322,7 @@
       <c r="N335" s="8"/>
       <c r="O335" s="13"/>
     </row>
-    <row r="336" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <v>335</v>
       </c>
@@ -15888,7 +16338,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H336" s="11" t="s">
@@ -15898,7 +16348,7 @@
         <v>752</v>
       </c>
       <c r="J336" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K336" s="8"/>
@@ -15907,7 +16357,7 @@
       <c r="N336" s="8"/>
       <c r="O336" s="13"/>
     </row>
-    <row r="337" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <v>336</v>
       </c>
@@ -15923,7 +16373,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H337" s="11" t="s">
@@ -15933,7 +16383,7 @@
         <v>752</v>
       </c>
       <c r="J337" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K337" s="8"/>
@@ -15942,7 +16392,7 @@
       <c r="N337" s="8"/>
       <c r="O337" s="13"/>
     </row>
-    <row r="338" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <v>337</v>
       </c>
@@ -15958,7 +16408,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H338" s="11" t="s">
@@ -15968,7 +16418,7 @@
         <v>752</v>
       </c>
       <c r="J338" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K338" s="8"/>
@@ -15977,7 +16427,7 @@
       <c r="N338" s="8"/>
       <c r="O338" s="13"/>
     </row>
-    <row r="339" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <v>338</v>
       </c>
@@ -15993,7 +16443,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H339" s="11" t="s">
@@ -16003,7 +16453,7 @@
         <v>752</v>
       </c>
       <c r="J339" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K339" s="8"/>
@@ -16012,7 +16462,7 @@
       <c r="N339" s="8"/>
       <c r="O339" s="13"/>
     </row>
-    <row r="340" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
         <v>339</v>
       </c>
@@ -16028,7 +16478,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H340" s="11" t="s">
@@ -16038,7 +16488,7 @@
         <v>752</v>
       </c>
       <c r="J340" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K340" s="8"/>
@@ -16047,7 +16497,7 @@
       <c r="N340" s="8"/>
       <c r="O340" s="13"/>
     </row>
-    <row r="341" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <v>340</v>
       </c>
@@ -16063,7 +16513,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H341" s="11" t="s">
@@ -16073,7 +16523,7 @@
         <v>752</v>
       </c>
       <c r="J341" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K341" s="8"/>
@@ -16082,7 +16532,7 @@
       <c r="N341" s="8"/>
       <c r="O341" s="13"/>
     </row>
-    <row r="342" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <v>341</v>
       </c>
@@ -16098,7 +16548,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H342" s="11" t="s">
@@ -16108,7 +16558,7 @@
         <v>752</v>
       </c>
       <c r="J342" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K342" s="8"/>
@@ -16117,7 +16567,7 @@
       <c r="N342" s="8"/>
       <c r="O342" s="13"/>
     </row>
-    <row r="343" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <v>342</v>
       </c>
@@ -16133,7 +16583,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H343" s="11" t="s">
@@ -16143,7 +16593,7 @@
         <v>752</v>
       </c>
       <c r="J343" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K343" s="8"/>
@@ -16152,7 +16602,7 @@
       <c r="N343" s="8"/>
       <c r="O343" s="13"/>
     </row>
-    <row r="344" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
         <v>343</v>
       </c>
@@ -16168,7 +16618,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H344" s="11" t="s">
@@ -16178,7 +16628,7 @@
         <v>752</v>
       </c>
       <c r="J344" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K344" s="8"/>
@@ -16187,7 +16637,7 @@
       <c r="N344" s="8"/>
       <c r="O344" s="13"/>
     </row>
-    <row r="345" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7">
         <v>344</v>
       </c>
@@ -16203,7 +16653,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H345" s="11" t="s">
@@ -16213,7 +16663,7 @@
         <v>752</v>
       </c>
       <c r="J345" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K345" s="8"/>
@@ -16222,7 +16672,7 @@
       <c r="N345" s="8"/>
       <c r="O345" s="13"/>
     </row>
-    <row r="346" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
         <v>345</v>
       </c>
@@ -16238,7 +16688,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H346" s="11" t="s">
@@ -16248,7 +16698,7 @@
         <v>752</v>
       </c>
       <c r="J346" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K346" s="8"/>
@@ -16257,7 +16707,7 @@
       <c r="N346" s="8"/>
       <c r="O346" s="13"/>
     </row>
-    <row r="347" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
         <v>346</v>
       </c>
@@ -16273,7 +16723,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H347" s="11" t="s">
@@ -16283,7 +16733,7 @@
         <v>752</v>
       </c>
       <c r="J347" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K347" s="8"/>
@@ -16292,7 +16742,7 @@
       <c r="N347" s="8"/>
       <c r="O347" s="13"/>
     </row>
-    <row r="348" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
         <v>347</v>
       </c>
@@ -16308,7 +16758,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H348" s="11" t="s">
@@ -16318,7 +16768,7 @@
         <v>752</v>
       </c>
       <c r="J348" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K348" s="8"/>
@@ -16327,7 +16777,7 @@
       <c r="N348" s="8"/>
       <c r="O348" s="13"/>
     </row>
-    <row r="349" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
         <v>348</v>
       </c>
@@ -16343,7 +16793,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H349" s="11" t="s">
@@ -16353,7 +16803,7 @@
         <v>752</v>
       </c>
       <c r="J349" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K349" s="8"/>
@@ -16362,7 +16812,7 @@
       <c r="N349" s="8"/>
       <c r="O349" s="13"/>
     </row>
-    <row r="350" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
         <v>349</v>
       </c>
@@ -16378,7 +16828,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H350" s="11" t="s">
@@ -16388,7 +16838,7 @@
         <v>752</v>
       </c>
       <c r="J350" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K350" s="8"/>
@@ -16397,7 +16847,7 @@
       <c r="N350" s="8"/>
       <c r="O350" s="13"/>
     </row>
-    <row r="351" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
         <v>350</v>
       </c>
@@ -16413,7 +16863,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H351" s="11" t="s">
@@ -16423,7 +16873,7 @@
         <v>752</v>
       </c>
       <c r="J351" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K351" s="8"/>
@@ -16432,7 +16882,7 @@
       <c r="N351" s="8"/>
       <c r="O351" s="13"/>
     </row>
-    <row r="352" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
         <v>351</v>
       </c>
@@ -16448,7 +16898,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H352" s="11" t="s">
@@ -16458,7 +16908,7 @@
         <v>752</v>
       </c>
       <c r="J352" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K352" s="8"/>
@@ -16467,7 +16917,7 @@
       <c r="N352" s="8"/>
       <c r="O352" s="13"/>
     </row>
-    <row r="353" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
         <v>352</v>
       </c>
@@ -16483,7 +16933,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H353" s="11" t="s">
@@ -16493,7 +16943,7 @@
         <v>752</v>
       </c>
       <c r="J353" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K353" s="8"/>
@@ -16502,7 +16952,7 @@
       <c r="N353" s="8"/>
       <c r="O353" s="13"/>
     </row>
-    <row r="354" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
         <v>353</v>
       </c>
@@ -16518,7 +16968,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H354" s="11" t="s">
@@ -16528,7 +16978,7 @@
         <v>752</v>
       </c>
       <c r="J354" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K354" s="8"/>
@@ -16537,7 +16987,7 @@
       <c r="N354" s="8"/>
       <c r="O354" s="13"/>
     </row>
-    <row r="355" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
         <v>354</v>
       </c>
@@ -16553,7 +17003,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H355" s="11" t="s">
@@ -16563,7 +17013,7 @@
         <v>752</v>
       </c>
       <c r="J355" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K355" s="8"/>
@@ -16572,7 +17022,7 @@
       <c r="N355" s="8"/>
       <c r="O355" s="13"/>
     </row>
-    <row r="356" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
         <v>355</v>
       </c>
@@ -16588,7 +17038,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H356" s="11" t="s">
@@ -16598,7 +17048,7 @@
         <v>752</v>
       </c>
       <c r="J356" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K356" s="8"/>
@@ -16607,7 +17057,7 @@
       <c r="N356" s="8"/>
       <c r="O356" s="13"/>
     </row>
-    <row r="357" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -16623,7 +17073,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H357" s="11" t="s">
@@ -16633,7 +17083,7 @@
         <v>752</v>
       </c>
       <c r="J357" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K357" s="8"/>
@@ -16642,7 +17092,7 @@
       <c r="N357" s="8"/>
       <c r="O357" s="13"/>
     </row>
-    <row r="358" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -16658,7 +17108,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H358" s="11" t="s">
@@ -16668,7 +17118,7 @@
         <v>752</v>
       </c>
       <c r="J358" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K358" s="8"/>
@@ -16677,7 +17127,7 @@
       <c r="N358" s="8"/>
       <c r="O358" s="13"/>
     </row>
-    <row r="359" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -16693,7 +17143,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H359" s="11" t="s">
@@ -16703,7 +17153,7 @@
         <v>752</v>
       </c>
       <c r="J359" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K359" s="8"/>
@@ -16712,7 +17162,7 @@
       <c r="N359" s="8"/>
       <c r="O359" s="13"/>
     </row>
-    <row r="360" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7">
         <v>359</v>
       </c>
@@ -16728,7 +17178,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H360" s="11" t="s">
@@ -16738,7 +17188,7 @@
         <v>752</v>
       </c>
       <c r="J360" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K360" s="8"/>
@@ -16747,7 +17197,7 @@
       <c r="N360" s="8"/>
       <c r="O360" s="13"/>
     </row>
-    <row r="361" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -16763,7 +17213,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H361" s="11" t="s">
@@ -16773,7 +17223,7 @@
         <v>752</v>
       </c>
       <c r="J361" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K361" s="8"/>
@@ -16782,7 +17232,7 @@
       <c r="N361" s="8"/>
       <c r="O361" s="13"/>
     </row>
-    <row r="362" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7">
         <v>361</v>
       </c>
@@ -16798,7 +17248,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H362" s="11" t="s">
@@ -16808,7 +17258,7 @@
         <v>752</v>
       </c>
       <c r="J362" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K362" s="8"/>
@@ -16817,7 +17267,7 @@
       <c r="N362" s="8"/>
       <c r="O362" s="13"/>
     </row>
-    <row r="363" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7">
         <v>362</v>
       </c>
@@ -16833,7 +17283,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H363" s="11" t="s">
@@ -16843,7 +17293,7 @@
         <v>752</v>
       </c>
       <c r="J363" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K363" s="8"/>
@@ -16852,7 +17302,7 @@
       <c r="N363" s="8"/>
       <c r="O363" s="13"/>
     </row>
-    <row r="364" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7">
         <v>363</v>
       </c>
@@ -16868,7 +17318,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H364" s="11" t="s">
@@ -16878,7 +17328,7 @@
         <v>752</v>
       </c>
       <c r="J364" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K364" s="8"/>
@@ -16887,7 +17337,7 @@
       <c r="N364" s="8"/>
       <c r="O364" s="13"/>
     </row>
-    <row r="365" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" ht="31.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7">
         <v>364</v>
       </c>
@@ -16903,7 +17353,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H365" s="11" t="s">
@@ -16913,7 +17363,7 @@
         <v>752</v>
       </c>
       <c r="J365" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>راسب</v>
       </c>
       <c r="K365" s="8"/>
@@ -16923,6 +17373,13 @@
       <c r="O365" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O365" xr:uid="{02D9B472-615A-444B-A8C8-0C8D83C0DD87}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="B"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:O118">
     <sortCondition descending="1" ref="G2:G118"/>
   </sortState>

--- a/results1.xlsx
+++ b/results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\النتائج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030B683-E2F9-4086-B94F-19B642952A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE557F75-59DD-483C-8611-27B77DCB66D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -2782,7 +2782,7 @@
   <dimension ref="A1:U345"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q358" sqref="Q358"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results1.xlsx
+++ b/results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\امتحانات الكورس الثاني\امتحانات كورس اول 2026\النتائج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE557F75-59DD-483C-8611-27B77DCB66D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF81B602-D15E-4B74-B1F6-4A52F53A028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64B607E4-2FA6-4167-B52D-26625A4C85A0}"/>
   </bookViews>
@@ -2781,8 +2781,8 @@
   </sheetPr>
   <dimension ref="A1:U345"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
